--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B953F-91A0-431D-9ECF-4BD71DC08F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB161DAE-1FF6-4B40-8776-1204F95B82A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1329,21 +1329,21 @@
     <t>com_fr</t>
   </si>
   <si>
+    <t>process</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
     <t>S1aH1</t>
   </si>
   <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
     <t>elc_sol-CHE</t>
   </si>
   <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -2484,10 +2484,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4</t>
-  </si>
-  <si>
-    <t>S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24</t>
+    <t>S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13</t>
+  </si>
+  <si>
+    <t>S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24</v>
+        <v>S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4</v>
+        <v>S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3703,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9532A-0F07-4858-8F65-2C41D8DFF72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F20B2D7-FCDC-4AC7-B7AE-D6004CF1DFAE}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6523,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40287D2-CD57-4CAE-866C-1B8AA86E9B17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585671B-BA51-480B-87CE-4E29283CE2E4}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6596,16 +6596,16 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K4" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>7.8719445691922726E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O4" t="s">
         <v>821</v>
@@ -6631,16 +6631,16 @@
         <v>9.2299999999999999E-4</v>
       </c>
       <c r="J5" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K5" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
       <c r="M5" t="s">
         <v>84</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210869E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>821</v>
@@ -6666,16 +6666,16 @@
         <v>1.0119999999999999E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K6" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903359E-2</v>
+        <v>9.7812279463655616E-2</v>
       </c>
       <c r="O6" t="s">
         <v>821</v>
@@ -6701,16 +6701,16 @@
         <v>1.0999999999999998E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K7" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>9.7812279463655574E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O7" t="s">
         <v>821</v>
@@ -6736,16 +6736,16 @@
         <v>8.9529999999999992E-3</v>
       </c>
       <c r="J8" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K8" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.86333483030730707</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O8" t="s">
         <v>821</v>
@@ -6771,10 +6771,10 @@
         <v>3.2410000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K9" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -6797,10 +6797,10 @@
         <v>9.4909999999999994E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K10" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -6823,10 +6823,10 @@
         <v>3.1855000000000001E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K11" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -6849,10 +6849,10 @@
         <v>2.1468000000000001E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K12" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -6875,10 +6875,10 @@
         <v>8.8979999999999997E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K13" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -6901,10 +6901,10 @@
         <v>1.0496E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K14" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -6927,10 +6927,10 @@
         <v>9.8140000000000015E-3</v>
       </c>
       <c r="J15" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K15" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -6953,10 +6953,10 @@
         <v>5.3898000000000001E-2</v>
       </c>
       <c r="J16" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K16" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -6979,10 +6979,10 @@
         <v>3.1456999999999999E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K17" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -7005,10 +7005,10 @@
         <v>6.796E-3</v>
       </c>
       <c r="J18" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K18" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -7031,10 +7031,10 @@
         <v>1.4704E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K19" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
@@ -7057,10 +7057,10 @@
         <v>6.0167999999999999E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K20" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
@@ -7083,10 +7083,10 @@
         <v>6.2880000000000002E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K21" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
@@ -7109,10 +7109,10 @@
         <v>1.0005E-2</v>
       </c>
       <c r="J22" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K22" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
@@ -7135,10 +7135,10 @@
         <v>2.4525999999999999E-2</v>
       </c>
       <c r="J23" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K23" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
@@ -7161,10 +7161,10 @@
         <v>0.16175400000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K24" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
@@ -7187,10 +7187,10 @@
         <v>0.20524100000000001</v>
       </c>
       <c r="J25" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K25" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
@@ -7213,10 +7213,10 @@
         <v>2.3789999999999999E-2</v>
       </c>
       <c r="J26" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
@@ -7239,10 +7239,10 @@
         <v>2.8472000000000001E-2</v>
       </c>
       <c r="J27" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K27" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
@@ -7265,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K28" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
@@ -7291,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K29" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K30" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
@@ -7343,10 +7343,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K31" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
@@ -7369,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K32" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
@@ -7395,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K33" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K34" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K35" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
@@ -7473,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K36" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
@@ -7499,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K37" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K38" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
@@ -7551,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K39" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K40" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
@@ -7603,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K41" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
@@ -7629,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K42" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
@@ -7681,10 +7681,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K44" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
@@ -7707,10 +7707,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K45" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
@@ -7733,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K46" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
@@ -7759,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
@@ -7785,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
@@ -7811,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
@@ -7837,10 +7837,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
@@ -7915,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
@@ -7941,10 +7941,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K54" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
@@ -8019,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
@@ -8045,10 +8045,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
@@ -8071,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K59" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
@@ -8097,10 +8097,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
@@ -8123,10 +8123,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K61" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
@@ -8149,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
@@ -8175,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K63" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
@@ -8201,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K64" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
@@ -8253,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K66" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
@@ -8279,10 +8279,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K67" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
@@ -8305,10 +8305,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K68" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
@@ -8331,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K69" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
@@ -8357,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K70" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
@@ -8383,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K71" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K72" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
@@ -8435,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K73" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
@@ -8487,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K75" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
@@ -8513,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K76" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
@@ -8539,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K77" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
@@ -8565,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K78" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
@@ -8591,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K79" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K80" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K81" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
@@ -8669,10 +8669,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K82" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
@@ -8695,10 +8695,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K83" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
@@ -8721,10 +8721,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K84" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
@@ -8747,10 +8747,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K85" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
@@ -8773,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K86" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
@@ -8799,10 +8799,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K87" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
@@ -8825,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K88" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
@@ -8851,10 +8851,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K89" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
@@ -8877,10 +8877,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K90" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
@@ -8903,10 +8903,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K91" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K92" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
@@ -8955,10 +8955,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K93" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
@@ -8981,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K94" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
@@ -9007,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K95" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
@@ -9033,10 +9033,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K96" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
@@ -9059,10 +9059,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K97" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
@@ -9085,10 +9085,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K98" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
@@ -9111,10 +9111,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K99" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
@@ -9137,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K100" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K101" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
@@ -9189,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K102" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
@@ -9215,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K103" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
@@ -9241,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K104" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
@@ -9267,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K105" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
@@ -9293,10 +9293,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K106" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
@@ -9319,10 +9319,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K107" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
@@ -9345,10 +9345,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K108" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
@@ -9371,10 +9371,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K109" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K110" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
@@ -9423,10 +9423,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K111" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
@@ -9449,10 +9449,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K112" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
@@ -9475,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K113" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K114" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K115" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
@@ -9553,10 +9553,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K116" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K117" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.45">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K118" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.45">
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K119" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.45">
@@ -9657,10 +9657,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K120" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
@@ -9683,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K121" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
@@ -9709,10 +9709,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K122" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K123" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.45">
@@ -9761,10 +9761,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K124" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.45">
@@ -9787,10 +9787,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K125" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.45">
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K126" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.45">
@@ -9839,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K127" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.45">
@@ -9865,10 +9865,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K128" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
@@ -9891,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K129" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.45">
@@ -9917,10 +9917,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K130" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K131" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.45">
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K132" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.45">
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K133" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.45">
@@ -10021,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K134" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.45">
@@ -10047,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K135" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.45">
@@ -10073,10 +10073,10 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K136" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.45">
@@ -10099,10 +10099,10 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K137" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.45">
@@ -10125,10 +10125,10 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K138" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.45">
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K139" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.45">
@@ -10177,10 +10177,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K140" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.45">
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K141" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.45">
@@ -10229,10 +10229,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K142" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.45">
@@ -10255,10 +10255,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K143" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.45">
@@ -10281,10 +10281,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K144" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.45">
@@ -10307,10 +10307,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K145" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.45">
@@ -10333,10 +10333,10 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K146" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.45">
@@ -10359,10 +10359,10 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K147" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.45">
@@ -10385,10 +10385,10 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K148" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.45">
@@ -10411,10 +10411,10 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K149" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.45">
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K150" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.45">
@@ -10463,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K151" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.45">
@@ -10489,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K152" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.45">
@@ -10515,10 +10515,10 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K153" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.45">
@@ -10541,10 +10541,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K154" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.45">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K155" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.45">
@@ -10593,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K156" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.45">
@@ -10619,10 +10619,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K157" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.45">
@@ -10645,10 +10645,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K158" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.45">
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K159" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.45">
@@ -10697,10 +10697,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K160" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.45">
@@ -10723,10 +10723,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K161" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.45">
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K162" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.45">
@@ -10775,10 +10775,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K163" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.45">
@@ -10801,10 +10801,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K164" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.45">
@@ -10827,10 +10827,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K165" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.45">
@@ -10853,10 +10853,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K166" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.45">
@@ -10879,10 +10879,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K167" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.45">
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K168" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.45">
@@ -10931,10 +10931,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K169" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.45">
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K170" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.45">
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K171" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.45">
@@ -11009,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K172" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.45">
@@ -11035,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K173" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.45">
@@ -11061,10 +11061,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K174" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.45">
@@ -11087,10 +11087,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K175" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.45">
@@ -11113,10 +11113,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K176" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.45">
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K177" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.45">
@@ -11165,10 +11165,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K178" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.45">
@@ -11191,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K179" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.45">
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K180" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.45">
@@ -11243,10 +11243,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K181" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.45">
@@ -11269,10 +11269,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K182" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.45">
@@ -11295,10 +11295,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K183" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.45">
@@ -11321,10 +11321,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K184" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.45">
@@ -11347,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K185" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.45">
@@ -11373,10 +11373,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K186" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.45">
@@ -11399,10 +11399,10 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K187" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.45">
@@ -11425,10 +11425,10 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K188" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.45">
@@ -11451,10 +11451,10 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K189" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.45">
@@ -11477,10 +11477,10 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K190" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.45">
@@ -11503,10 +11503,10 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K191" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.45">
@@ -11529,10 +11529,10 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K192" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.45">
@@ -11555,10 +11555,10 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K193" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.45">
@@ -11581,10 +11581,10 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K194" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.45">
@@ -11607,10 +11607,10 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K195" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.45">
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K196" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.45">
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K197" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.45">
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K198" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.45">
@@ -11711,10 +11711,10 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K199" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.45">
@@ -11737,10 +11737,10 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K200" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.45">
@@ -11763,10 +11763,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K201" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.45">
@@ -11789,10 +11789,10 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K202" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.45">
@@ -11815,10 +11815,10 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K203" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.45">
@@ -11841,10 +11841,10 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K204" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.45">
@@ -11867,10 +11867,10 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K205" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.45">
@@ -11893,10 +11893,10 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K206" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.45">
@@ -11919,10 +11919,10 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K207" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.45">
@@ -11945,10 +11945,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K208" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.45">
@@ -11971,10 +11971,10 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K209" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.45">
@@ -11997,10 +11997,10 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K210" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.45">
@@ -12023,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K211" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.45">
@@ -12049,10 +12049,10 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K212" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.45">
@@ -12075,10 +12075,10 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K213" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.45">
@@ -12101,10 +12101,10 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K214" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.45">
@@ -12127,10 +12127,10 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K215" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.45">
@@ -12153,10 +12153,10 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K216" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.45">
@@ -12179,10 +12179,10 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K217" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.45">
@@ -12205,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K218" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.45">
@@ -12231,10 +12231,10 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K219" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.45">
@@ -12257,10 +12257,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K220" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.45">
@@ -12283,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K221" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.45">
@@ -12309,10 +12309,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K222" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.45">
@@ -12335,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K223" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.45">
@@ -12361,10 +12361,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K224" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.45">
@@ -12387,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K225" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.45">
@@ -12413,10 +12413,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K226" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.45">
@@ -12439,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K227" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.45">
@@ -12465,10 +12465,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K228" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.45">
@@ -12491,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K229" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.45">
@@ -12517,10 +12517,10 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K230" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.45">
@@ -12543,10 +12543,10 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K231" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.45">
@@ -12569,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K232" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.45">
@@ -12595,10 +12595,10 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K233" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.45">
@@ -12621,10 +12621,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K234" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.45">
@@ -12647,10 +12647,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K235" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.45">
@@ -12673,10 +12673,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K236" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.45">
@@ -12699,10 +12699,10 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K237" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.45">
@@ -12725,10 +12725,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K238" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.45">
@@ -12751,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K239" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.45">
@@ -12777,10 +12777,10 @@
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K240" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.45">
@@ -12803,10 +12803,10 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K241" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.45">
@@ -12829,10 +12829,10 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K242" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.45">
@@ -12855,10 +12855,10 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K243" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.45">
@@ -12881,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K244" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.45">
@@ -12907,10 +12907,10 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K245" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.45">
@@ -12933,10 +12933,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K246" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.45">
@@ -12959,10 +12959,10 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K247" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.45">
@@ -12985,10 +12985,10 @@
         <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K248" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.45">
@@ -13011,10 +13011,10 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K249" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.45">
@@ -13037,10 +13037,10 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K250" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.45">
@@ -13063,10 +13063,10 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K251" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.45">
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K252" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.45">
@@ -13115,10 +13115,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K253" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.45">
@@ -13141,10 +13141,10 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K254" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.45">
@@ -13167,10 +13167,10 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K255" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.45">
@@ -13193,10 +13193,10 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K256" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.45">
@@ -13219,10 +13219,10 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K257" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.45">
@@ -13245,10 +13245,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K258" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.45">
@@ -13271,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K259" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.45">
@@ -13297,10 +13297,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K260" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.45">
@@ -13323,10 +13323,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J261" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K261" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.45">
@@ -13349,10 +13349,10 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K262" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.45">
@@ -13375,10 +13375,10 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K263" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.45">
@@ -13401,10 +13401,10 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K264" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.45">
@@ -13427,10 +13427,10 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K265" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.45">
@@ -13453,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K266" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.45">
@@ -13479,10 +13479,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K267" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.45">
@@ -13505,10 +13505,10 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K268" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.45">
@@ -13531,10 +13531,10 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K269" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.45">
@@ -13557,10 +13557,10 @@
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K270" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.45">
@@ -13583,10 +13583,10 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K271" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.45">
@@ -13609,10 +13609,10 @@
         <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K272" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.45">
@@ -13635,10 +13635,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K273" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.45">
@@ -13661,10 +13661,10 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K274" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.45">
@@ -13687,10 +13687,10 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K275" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.45">
@@ -13713,10 +13713,10 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K276" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.45">
@@ -13739,10 +13739,10 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K277" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.45">
@@ -13765,10 +13765,10 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K278" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.45">
@@ -13791,10 +13791,10 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K279" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.45">
@@ -13817,10 +13817,10 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K280" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.45">
@@ -13843,10 +13843,10 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K281" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.45">
@@ -13869,10 +13869,10 @@
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K282" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.45">
@@ -13895,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K283" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.45">
@@ -13921,10 +13921,10 @@
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K284" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.45">
@@ -13947,10 +13947,10 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K285" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.45">
@@ -13973,10 +13973,10 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K286" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.45">
@@ -13999,10 +13999,10 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K287" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.45">
@@ -14025,10 +14025,10 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K288" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.45">
@@ -14051,10 +14051,10 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K289" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="290" spans="2:11" x14ac:dyDescent="0.45">
@@ -14077,10 +14077,10 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K290" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.45">
@@ -14103,10 +14103,10 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K291" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.45">
@@ -14129,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K292" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="293" spans="2:11" x14ac:dyDescent="0.45">
@@ -14155,10 +14155,10 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K293" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.45">
@@ -14181,10 +14181,10 @@
         <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K294" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.45">
@@ -14207,10 +14207,10 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K295" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.45">
@@ -14233,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K296" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.45">
@@ -14259,10 +14259,10 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K297" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.45">
@@ -14285,10 +14285,10 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K298" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.45">
@@ -14311,10 +14311,10 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K299" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.45">
@@ -14337,10 +14337,10 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K300" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.45">
@@ -14363,10 +14363,10 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K301" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.45">
@@ -14389,10 +14389,10 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K302" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.45">
@@ -14415,10 +14415,10 @@
         <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K303" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.45">
@@ -14441,10 +14441,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J304" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K304" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.45">
@@ -14467,10 +14467,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J305" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K305" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.45">
@@ -14493,10 +14493,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J306" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K306" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.45">
@@ -14519,10 +14519,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J307" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K307" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.45">
@@ -14545,10 +14545,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J308" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K308" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.45">
@@ -14571,10 +14571,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J309" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K309" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.45">
@@ -14597,10 +14597,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J310" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K310" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.45">
@@ -14623,10 +14623,10 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K311" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.45">
@@ -14649,10 +14649,10 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K312" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.45">
@@ -14675,10 +14675,10 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K313" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.45">
@@ -14701,10 +14701,10 @@
         <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K314" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.45">
@@ -14727,10 +14727,10 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K315" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.45">
@@ -14753,10 +14753,10 @@
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K316" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.45">
@@ -14779,10 +14779,10 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K317" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.45">
@@ -14805,10 +14805,10 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K318" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.45">
@@ -14831,10 +14831,10 @@
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K319" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.45">
@@ -14857,10 +14857,10 @@
         <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K320" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.45">
@@ -14883,10 +14883,10 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K321" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.45">
@@ -14909,10 +14909,10 @@
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K322" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.45">
@@ -14935,10 +14935,10 @@
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K323" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.45">
@@ -14961,10 +14961,10 @@
         <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K324" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.45">
@@ -14987,10 +14987,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J325" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K325" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.45">
@@ -15013,10 +15013,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J326" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K326" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.45">
@@ -15039,10 +15039,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J327" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K327" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.45">
@@ -15065,10 +15065,10 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J328" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K328" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.45">
@@ -15091,10 +15091,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J329" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K329" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.45">
@@ -15117,10 +15117,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J330" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K330" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.45">
@@ -15143,10 +15143,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J331" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K331" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.45">
@@ -15169,10 +15169,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J332" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K332" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.45">
@@ -15195,10 +15195,10 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K333" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.45">
@@ -15221,10 +15221,10 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K334" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.45">
@@ -15247,10 +15247,10 @@
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K335" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.45">
@@ -15273,10 +15273,10 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K336" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="337" spans="2:11" x14ac:dyDescent="0.45">
@@ -15299,10 +15299,10 @@
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K337" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.45">
@@ -15325,10 +15325,10 @@
         <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K338" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.45">
@@ -15351,10 +15351,10 @@
         <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K339" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.45">
@@ -15377,10 +15377,10 @@
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K340" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.45">
@@ -15403,10 +15403,10 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K341" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.45">
@@ -15429,10 +15429,10 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K342" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.45">
@@ -15455,10 +15455,10 @@
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K343" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="344" spans="2:11" x14ac:dyDescent="0.45">
@@ -15481,10 +15481,10 @@
         <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K344" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.45">
@@ -15507,10 +15507,10 @@
         <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K345" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="346" spans="2:11" x14ac:dyDescent="0.45">
@@ -15533,10 +15533,10 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K346" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="347" spans="2:11" x14ac:dyDescent="0.45">
@@ -15559,10 +15559,10 @@
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K347" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="348" spans="2:11" x14ac:dyDescent="0.45">
@@ -15585,10 +15585,10 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K348" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.45">
@@ -15611,10 +15611,10 @@
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K349" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.45">
@@ -15637,10 +15637,10 @@
         <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K350" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.45">
@@ -15663,10 +15663,10 @@
         <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K351" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="352" spans="2:11" x14ac:dyDescent="0.45">
@@ -15689,10 +15689,10 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K352" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="353" spans="2:11" x14ac:dyDescent="0.45">
@@ -15715,10 +15715,10 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K353" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.45">
@@ -15741,10 +15741,10 @@
         <v>0</v>
       </c>
       <c r="J354" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K354" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="355" spans="2:11" x14ac:dyDescent="0.45">
@@ -15767,10 +15767,10 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K355" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="356" spans="2:11" x14ac:dyDescent="0.45">
@@ -15793,10 +15793,10 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K356" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="357" spans="2:11" x14ac:dyDescent="0.45">
@@ -15819,10 +15819,10 @@
         <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K357" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="358" spans="2:11" x14ac:dyDescent="0.45">
@@ -15845,10 +15845,10 @@
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K358" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="359" spans="2:11" x14ac:dyDescent="0.45">
@@ -15871,10 +15871,10 @@
         <v>0</v>
       </c>
       <c r="J359" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K359" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="360" spans="2:11" x14ac:dyDescent="0.45">
@@ -15897,10 +15897,10 @@
         <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K360" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="361" spans="2:11" x14ac:dyDescent="0.45">
@@ -15923,10 +15923,10 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K361" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="362" spans="2:11" x14ac:dyDescent="0.45">
@@ -15949,10 +15949,10 @@
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K362" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="363" spans="2:11" x14ac:dyDescent="0.45">
@@ -15975,10 +15975,10 @@
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K363" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="364" spans="2:11" x14ac:dyDescent="0.45">
@@ -16001,10 +16001,10 @@
         <v>1.9053E-2</v>
       </c>
       <c r="J364" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K364" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="365" spans="2:11" x14ac:dyDescent="0.45">
@@ -16027,10 +16027,10 @@
         <v>3.431E-3</v>
       </c>
       <c r="J365" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K365" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="366" spans="2:11" x14ac:dyDescent="0.45">
@@ -16053,10 +16053,10 @@
         <v>1.4496999999999999E-2</v>
       </c>
       <c r="J366" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K366" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="367" spans="2:11" x14ac:dyDescent="0.45">
@@ -16079,10 +16079,10 @@
         <v>2.8079E-2</v>
       </c>
       <c r="J367" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K367" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="368" spans="2:11" x14ac:dyDescent="0.45">
@@ -16105,10 +16105,10 @@
         <v>0.10306800000000001</v>
       </c>
       <c r="J368" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K368" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="369" spans="2:11" x14ac:dyDescent="0.45">
@@ -16131,10 +16131,10 @@
         <v>4.0084000000000002E-2</v>
       </c>
       <c r="J369" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K369" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="370" spans="2:11" x14ac:dyDescent="0.45">
@@ -16157,10 +16157,10 @@
         <v>2.2720000000000001E-3</v>
       </c>
       <c r="J370" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K370" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="371" spans="2:11" x14ac:dyDescent="0.45">
@@ -16183,10 +16183,10 @@
         <v>1.0816000000000001E-2</v>
       </c>
       <c r="J371" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K371" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="372" spans="2:11" x14ac:dyDescent="0.45">
@@ -16209,10 +16209,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="J372" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K372" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="373" spans="2:11" x14ac:dyDescent="0.45">
@@ -16235,10 +16235,10 @@
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K373" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="374" spans="2:11" x14ac:dyDescent="0.45">
@@ -16261,10 +16261,10 @@
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K374" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="375" spans="2:11" x14ac:dyDescent="0.45">
@@ -16287,10 +16287,10 @@
         <v>0</v>
       </c>
       <c r="J375" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K375" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="376" spans="2:11" x14ac:dyDescent="0.45">
@@ -16313,10 +16313,10 @@
         <v>6.87E-4</v>
       </c>
       <c r="J376" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K376" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="377" spans="2:11" x14ac:dyDescent="0.45">
@@ -16339,10 +16339,10 @@
         <v>1.774E-3</v>
       </c>
       <c r="J377" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K377" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="378" spans="2:11" x14ac:dyDescent="0.45">
@@ -16365,10 +16365,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J378" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K378" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
     <row r="379" spans="2:11" x14ac:dyDescent="0.45">
@@ -16391,10 +16391,10 @@
         <v>2.0900000000000001E-4</v>
       </c>
       <c r="J379" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="K379" t="s">
-        <v>433</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -16403,7 +16403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF9977-DA07-43C2-896C-BEC0913AF961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87935E3A-60AC-45B3-AF33-D1007CC2F6C5}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -16432,10 +16432,10 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -16444,7 +16444,7 @@
         <v>428</v>
       </c>
       <c r="M3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB161DAE-1FF6-4B40-8776-1204F95B82A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB30FC-0809-4616-A720-65BA58E0BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2484,10 +2484,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13</t>
-  </si>
-  <si>
-    <t>S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21</t>
+    <t>S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21</v>
+        <v>S1aH7,S3b0327h03,S3b0327h23,S3b0328h22,S3b0328h24,S3b0330h19,S3b0331h02,S3b0331h05,S3b0331h06,S3b0331h23,S3c0406h19,S3c0407h04,S3c0408h02,S4aH7,S5aH7,S3b0326h20,S3b0328h01,S3b0328h04,S3b0401h22,S3c0402h01,S3c0402h24,S3c0404h03,S3c0404h05,S3c0405h05,S3c0406h20,S3c0407h02,S3c0407h24,S4aH1,S3b0328h06,S3b0329h24,S3b0330h22,S3b0401h02,S3c0402h02,S3c0406h23,S3c0407h22,S3c0408h19,S3b0328h05,S3b0331h24,S3c0402h22,S3c0402h23,S3c0403h21,S3c0403h23,S3c0405h01,S3c0405h19,S3c0405h21,S3c0406h21,S3b0326h03,S3b0327h20,S3b0328h20,S3b0328h21,S3b0329h01,S3b0401h06,S3c0402h03,S3c0402h21,S3c0403h05,S3c0404h01,S3c0404h02,S3c0404h06,S3c0404h24,S3aH1,S3b0326h21,S3b0328h23,S3b0329h19,S3b0329h20,S3b0329h21,S3b0401h23,S3c0403h02,S3c0404h21,S3c0406h06,S3c0407h21,S2aH1,S3aH7,S3b0327h22,S3b0328h19,S3b0331h19,S3b0401h21,S3c0406h01,S5aH8,S3b0328h02,S3b0330h06,S3b0330h21,S3c0403h24,S3c0405h22,S3c0406h05,S3c0406h22,S3c0408h22,S1aH8,S3b0327h02,S3b0329h03,S3b0330h02,S3b0331h21,S3c0405h06,S3c0406h02,S3c0408h01,S3c0408h03,S3c0408h05,S5aH1,S2aH8,S3b0326h02,S3b0326h05,S3b0327h01,S3b0328h03,S3b0329h05,S3b0329h06,S3b0401h01,S3c0402h04,S3c0405h03,S3c0406h04,S3c0406h24,S3c0408h04,S3c0408h21,S3aH8,S3b0326h01,S3b0327h06,S3b0327h19,S3b0329h22,S3b0329h23,S3b0331h01,S3b0401h19,S3c0403h06,S3c0404h23,S3c0405h02,S3c0405h23,S3c0406h03,S3c0407h03,S3c0407h06,S3c0407h19,S3c0407h20,S3b0326h04,S3b0326h19,S3b0330h23,S3b0330h24,S3b0331h03,S3b0331h04,S3b0331h22,S3c0403h20,S3c0404h20,S3c0404h22,S3c0405h04,S3c0405h20,S3c0407h23,S3c0408h23,S4aH8,S1aH1,S2aH7,S3b0326h23,S3b0327h04,S3b0327h21,S3b0330h04,S3b0401h20,S3c0402h05,S3c0404h19,S3c0408h06,S3b0326h06,S3b0326h22,S3b0329h02,S3b0329h04,S3b0330h01,S3b0330h03,S3b0331h20,S3c0403h03,S3c0403h04,S3c0407h01,S3c0407h05,S3b0326h24,S3b0330h05,S3b0401h03,S3c0402h06,S3c0402h20,S3c0403h19,S3c0405h24,S3c0408h20,S3b0327h05,S3b0327h24,S3b0330h20,S3b0401h04,S3b0401h05,S3b0401h24,S3c0402h19,S3c0403h01,S3c0403h22,S3c0404h04,S3c0408h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13</v>
+        <v>S1aH3,S3b0326h07,S3b0328h11,S3b0329h11,S3b0401h07,S3c0402h08,S3c0402h16,S3c0408h07,S1aH4,S2aH2,S3b0327h09,S3b0330h12,S3b0331h10,S3b0401h18,S3c0403h11,S3c0405h17,S3c0407h13,S3c0408h13,S4aH6,S1aH6,S3b0327h16,S3b0328h16,S3b0329h17,S3b0330h11,S3b0331h16,S3b0331h17,S3b0401h14,S3c0402h17,S3c0403h16,S3c0404h16,S3c0405h18,S3c0407h10,S3c0407h14,S3c0407h17,S3c0408h17,S1aH5,S2aH4,S2aH5,S3b0328h14,S3b0329h12,S3b0401h16,S3c0403h09,S3c0403h10,S3c0406h17,S5aH2,S5aH5,S3aH4,S3b0328h17,S3b0330h10,S3b0330h16,S3b0401h11,S3c0402h09,S3c0403h18,S3c0405h07,S3c0407h16,S3c0408h10,S4aH3,S4aH4,S3b0327h18,S3b0330h14,S3b0331h11,S3b0401h12,S3c0403h07,S3c0404h11,S3c0404h15,S3c0405h10,S3c0405h13,S3b0326h18,S3b0327h15,S3b0328h09,S3b0331h12,S3b0331h15,S3c0402h10,S3c0402h12,S3c0402h18,S3c0404h10,S3c0405h16,S3c0406h15,S3c0407h11,S3c0408h14,S4aH2,S3aH3,S3b0328h13,S3b0329h14,S3b0330h15,S3b0401h10,S3b0401h15,S3c0403h14,S2aH6,S3aH5,S3b0326h08,S3b0326h10,S3b0326h13,S3b0327h12,S3b0327h14,S3b0327h17,S3b0328h15,S3b0329h18,S3b0331h07,S3c0403h13,S3c0405h08,S3c0408h12,S3c0408h18,S5aH3,S3b0326h11,S3b0327h08,S3b0328h12,S3b0329h08,S3b0329h10,S3b0330h18,S3c0402h15,S3c0403h12,S3c0405h11,S3c0405h14,S3c0407h08,S3c0407h18,S3c0408h16,S3aH2,S3b0326h17,S3b0327h11,S3b0328h07,S3b0329h07,S3b0329h15,S3b0330h07,S3b0330h17,S3c0406h07,S3c0406h11,S3c0407h12,S3b0326h15,S3b0327h07,S3b0328h18,S3b0330h13,S3b0331h13,S3c0403h15,S3c0404h07,S3c0404h08,S3c0404h09,S3c0404h12,S3c0406h08,S3c0406h09,S3c0406h14,S3c0407h15,S3c0408h11,S3b0326h09,S3b0327h10,S3b0328h10,S3b0329h09,S3b0329h13,S3b0331h09,S3c0402h07,S3c0402h13,S3c0403h08,S3c0403h17,S3c0404h13,S3c0404h14,S3c0404h18,S3c0406h18,S3c0407h07,S3c0407h09,S3c0408h09,S3c0408h15,S1aH2,S2aH3,S3aH6,S3b0326h12,S3b0326h14,S3b0328h08,S3b0329h16,S3b0330h08,S3b0401h08,S3b0401h17,S3c0405h09,S5aH6,S3b0330h09,S3b0331h18,S3b0401h13,S3c0404h17,S3c0405h12,S3c0406h13,S3c0408h08,S4aH5,S3b0326h16,S3b0327h13,S3b0331h08,S3b0331h14,S3b0401h09,S3c0402h11,S3c0402h14,S3c0405h15,S3c0406h10,S3c0406h12,S3c0406h16,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3703,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F20B2D7-FCDC-4AC7-B7AE-D6004CF1DFAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ADB6B1-D66E-4F3B-B30C-E5BC63090668}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6523,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C585671B-BA51-480B-87CE-4E29283CE2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E12E01-FC3B-4CEF-B672-78389508D737}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6602,10 +6602,10 @@
         <v>810</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>821</v>
@@ -6637,10 +6637,10 @@
         <v>810</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O5" t="s">
         <v>821</v>
@@ -6707,10 +6707,10 @@
         <v>810</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N7">
-        <v>0.86333483030730718</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>821</v>
@@ -6742,10 +6742,10 @@
         <v>810</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.8719445691922754E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O8" t="s">
         <v>821</v>
@@ -16403,7 +16403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87935E3A-60AC-45B3-AF33-D1007CC2F6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B98CB7E-A8A8-4F12-A623-4C4FD7DB17AC}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02530D25-D39C-44F3-8431-BF57F8C51B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C2DDE-094D-49DB-BBD7-2D2CD702F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1344,7 +1344,7 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_sol-CHE</t>
+    <t>elc_spv-CHE</t>
   </si>
   <si>
     <t>S1aH2</t>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16</t>
-  </si>
-  <si>
-    <t>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22</t>
+    <t>S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</t>
+  </si>
+  <si>
+    <t>S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22</v>
+        <v>S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16</v>
+        <v>S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B093F7F5-4B38-4FD2-BE75-B1178EC778DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D621FD29-3FD3-43DF-8A4F-38A658E1D585}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB15F9EB-83D8-4DA6-A4FB-66A55F3C912E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A9C40-8B6B-49CC-BE4E-F776A4FBE6FA}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19960C39-420A-45DB-B0EE-F30D2B8B342A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116F9BA3-B296-440A-8131-3CC2C10C5A4D}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C2DDE-094D-49DB-BBD7-2D2CD702F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC2318-3F80-40F5-8074-65D3F8D2BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</t>
-  </si>
-  <si>
-    <t>S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</t>
+    <t>S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3</t>
+  </si>
+  <si>
+    <t>S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</v>
+        <v>S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</v>
+        <v>S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D621FD29-3FD3-43DF-8A4F-38A658E1D585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B0A26E-90B3-4A17-8CBE-C199FFA2346E}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A9C40-8B6B-49CC-BE4E-F776A4FBE6FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A880E3-04F7-41BE-9D21-6BFB7529D446}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.40660807082825429</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.26179508564829657</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>8.0605632899210883E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116F9BA3-B296-440A-8131-3CC2C10C5A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880AA99C-93C3-4C4C-8F13-EA5BF96C962B}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC2318-3F80-40F5-8074-65D3F8D2BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130D14CA-8263-45A6-9BB3-782EB7B38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2499,7 +2499,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-CHE</t>
+    <t>elc_won-CHE</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3</t>
-  </si>
-  <si>
-    <t>S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1</t>
+    <t>S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2</t>
+  </si>
+  <si>
+    <t>S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1</v>
+        <v>S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3</v>
+        <v>S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B0A26E-90B3-4A17-8CBE-C199FFA2346E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F59706-545F-44DF-97D4-E6F0B50D656A}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A880E3-04F7-41BE-9D21-6BFB7529D446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E807DE-2758-4741-B30A-46A58C54A1D3}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6635,7 +6635,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075638</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6670,7 +6670,7 @@
         <v>82</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880AA99C-93C3-4C4C-8F13-EA5BF96C962B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E81E7A-2057-4698-8495-4ACECEE69238}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130D14CA-8263-45A6-9BB3-782EB7B38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34318759-A4CD-4EFB-997C-98EB1DE6CC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2</t>
-  </si>
-  <si>
-    <t>S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24</t>
+    <t>S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</t>
+  </si>
+  <si>
+    <t>S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24</v>
+        <v>S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2</v>
+        <v>S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F59706-545F-44DF-97D4-E6F0B50D656A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E1E404-F5D6-4233-A33F-91F8527C7BC5}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E807DE-2758-4741-B30A-46A58C54A1D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFF51ED-CB69-41AC-9958-593E2BAB4440}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6623,7 +6623,7 @@
         <v>432</v>
       </c>
       <c r="I4">
-        <v>2.0386999999999999E-2</v>
+        <v>4.7082000000000006E-2</v>
       </c>
       <c r="J4" t="s">
         <v>433</v>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.19493167383075641</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6658,7 +6658,7 @@
         <v>435</v>
       </c>
       <c r="I5">
-        <v>2.2170000000000002E-3</v>
+        <v>6.7260000000000002E-3</v>
       </c>
       <c r="J5" t="s">
         <v>433</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6693,7 +6693,7 @@
         <v>436</v>
       </c>
       <c r="I6">
-        <v>4.614E-3</v>
+        <v>6.7260000000000002E-3</v>
       </c>
       <c r="J6" t="s">
         <v>433</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903401E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6728,7 +6728,7 @@
         <v>437</v>
       </c>
       <c r="I7">
-        <v>9.8209999999999999E-3</v>
+        <v>6.7260000000000002E-3</v>
       </c>
       <c r="J7" t="s">
         <v>433</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6763,7 +6763,7 @@
         <v>438</v>
       </c>
       <c r="I8">
-        <v>8.5273000000000002E-2</v>
+        <v>3.3649999999999999E-2</v>
       </c>
       <c r="J8" t="s">
         <v>433</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6798,7 +6798,7 @@
         <v>439</v>
       </c>
       <c r="I9">
-        <v>2.2471999999999999E-2</v>
+        <v>6.7260000000000002E-3</v>
       </c>
       <c r="J9" t="s">
         <v>433</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -6833,7 +6833,7 @@
         <v>440</v>
       </c>
       <c r="I10">
-        <v>1.9488999999999999E-2</v>
+        <v>6.7260000000000002E-3</v>
       </c>
       <c r="J10" t="s">
         <v>433</v>
@@ -6859,7 +6859,7 @@
         <v>441</v>
       </c>
       <c r="I11">
-        <v>8.4752000000000008E-2</v>
+        <v>4.7082000000000006E-2</v>
       </c>
       <c r="J11" t="s">
         <v>433</v>
@@ -6885,7 +6885,7 @@
         <v>442</v>
       </c>
       <c r="I12">
-        <v>1.5192000000000001E-2</v>
+        <v>9.1770000000000004E-2</v>
       </c>
       <c r="J12" t="s">
         <v>433</v>
@@ -6911,7 +6911,7 @@
         <v>443</v>
       </c>
       <c r="I13">
-        <v>8.3400000000000011E-4</v>
+        <v>1.311E-2</v>
       </c>
       <c r="J13" t="s">
         <v>433</v>
@@ -6937,7 +6937,7 @@
         <v>444</v>
       </c>
       <c r="I14">
-        <v>6.5700000000000003E-4</v>
+        <v>1.311E-2</v>
       </c>
       <c r="J14" t="s">
         <v>433</v>
@@ -6963,7 +6963,7 @@
         <v>445</v>
       </c>
       <c r="I15">
-        <v>2.722E-3</v>
+        <v>1.311E-2</v>
       </c>
       <c r="J15" t="s">
         <v>433</v>
@@ -6989,7 +6989,7 @@
         <v>446</v>
       </c>
       <c r="I16">
-        <v>0.13622300000000001</v>
+        <v>6.5549999999999997E-2</v>
       </c>
       <c r="J16" t="s">
         <v>433</v>
@@ -7015,7 +7015,7 @@
         <v>447</v>
       </c>
       <c r="I17">
-        <v>5.3588000000000004E-2</v>
+        <v>1.311E-2</v>
       </c>
       <c r="J17" t="s">
         <v>433</v>
@@ -7041,7 +7041,7 @@
         <v>448</v>
       </c>
       <c r="I18">
-        <v>4.3895999999999998E-2</v>
+        <v>1.311E-2</v>
       </c>
       <c r="J18" t="s">
         <v>433</v>
@@ -7067,7 +7067,7 @@
         <v>449</v>
       </c>
       <c r="I19">
-        <v>6.4661999999999997E-2</v>
+        <v>9.1770000000000004E-2</v>
       </c>
       <c r="J19" t="s">
         <v>433</v>
@@ -7093,7 +7093,7 @@
         <v>450</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J20" t="s">
         <v>433</v>
@@ -7119,7 +7119,7 @@
         <v>451</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J21" t="s">
         <v>433</v>
@@ -7145,7 +7145,7 @@
         <v>452</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J22" t="s">
         <v>433</v>
@@ -7171,7 +7171,7 @@
         <v>453</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J23" t="s">
         <v>433</v>
@@ -7197,7 +7197,7 @@
         <v>454</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J24" t="s">
         <v>433</v>
@@ -7223,7 +7223,7 @@
         <v>455</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J25" t="s">
         <v>433</v>
@@ -7249,7 +7249,7 @@
         <v>456</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J26" t="s">
         <v>433</v>
@@ -7275,7 +7275,7 @@
         <v>457</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J27" t="s">
         <v>433</v>
@@ -7301,7 +7301,7 @@
         <v>458</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J28" t="s">
         <v>433</v>
@@ -7327,7 +7327,7 @@
         <v>459</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J29" t="s">
         <v>433</v>
@@ -7353,7 +7353,7 @@
         <v>460</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J30" t="s">
         <v>433</v>
@@ -7379,7 +7379,7 @@
         <v>461</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J31" t="s">
         <v>433</v>
@@ -7405,7 +7405,7 @@
         <v>462</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J32" t="s">
         <v>433</v>
@@ -7431,7 +7431,7 @@
         <v>463</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J33" t="s">
         <v>433</v>
@@ -7457,7 +7457,7 @@
         <v>464</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J34" t="s">
         <v>433</v>
@@ -7483,7 +7483,7 @@
         <v>465</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J35" t="s">
         <v>433</v>
@@ -7509,7 +7509,7 @@
         <v>466</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J36" t="s">
         <v>433</v>
@@ -7535,7 +7535,7 @@
         <v>467</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J37" t="s">
         <v>433</v>
@@ -7561,7 +7561,7 @@
         <v>468</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J38" t="s">
         <v>433</v>
@@ -7587,7 +7587,7 @@
         <v>469</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J39" t="s">
         <v>433</v>
@@ -7613,7 +7613,7 @@
         <v>470</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J40" t="s">
         <v>433</v>
@@ -7639,7 +7639,7 @@
         <v>471</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J41" t="s">
         <v>433</v>
@@ -7665,7 +7665,7 @@
         <v>472</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J42" t="s">
         <v>433</v>
@@ -7691,7 +7691,7 @@
         <v>473</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J43" t="s">
         <v>433</v>
@@ -7717,7 +7717,7 @@
         <v>474</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J44" t="s">
         <v>433</v>
@@ -7743,7 +7743,7 @@
         <v>475</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J45" t="s">
         <v>433</v>
@@ -7769,7 +7769,7 @@
         <v>476</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J46" t="s">
         <v>433</v>
@@ -7795,7 +7795,7 @@
         <v>477</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J47" t="s">
         <v>433</v>
@@ -7821,7 +7821,7 @@
         <v>478</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J48" t="s">
         <v>433</v>
@@ -7847,7 +7847,7 @@
         <v>479</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J49" t="s">
         <v>433</v>
@@ -7873,7 +7873,7 @@
         <v>480</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J50" t="s">
         <v>433</v>
@@ -7899,7 +7899,7 @@
         <v>481</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>433</v>
@@ -7925,7 +7925,7 @@
         <v>482</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J52" t="s">
         <v>433</v>
@@ -7951,7 +7951,7 @@
         <v>483</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J53" t="s">
         <v>433</v>
@@ -7977,7 +7977,7 @@
         <v>484</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J54" t="s">
         <v>433</v>
@@ -8003,7 +8003,7 @@
         <v>485</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J55" t="s">
         <v>433</v>
@@ -8029,7 +8029,7 @@
         <v>486</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J56" t="s">
         <v>433</v>
@@ -8055,7 +8055,7 @@
         <v>487</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J57" t="s">
         <v>433</v>
@@ -8081,7 +8081,7 @@
         <v>488</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J58" t="s">
         <v>433</v>
@@ -8107,7 +8107,7 @@
         <v>489</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J59" t="s">
         <v>433</v>
@@ -8133,7 +8133,7 @@
         <v>490</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J60" t="s">
         <v>433</v>
@@ -8159,7 +8159,7 @@
         <v>491</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J61" t="s">
         <v>433</v>
@@ -8185,7 +8185,7 @@
         <v>492</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J62" t="s">
         <v>433</v>
@@ -8211,7 +8211,7 @@
         <v>493</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J63" t="s">
         <v>433</v>
@@ -8237,7 +8237,7 @@
         <v>494</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J64" t="s">
         <v>433</v>
@@ -8263,7 +8263,7 @@
         <v>495</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J65" t="s">
         <v>433</v>
@@ -8289,7 +8289,7 @@
         <v>496</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J66" t="s">
         <v>433</v>
@@ -8315,7 +8315,7 @@
         <v>497</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J67" t="s">
         <v>433</v>
@@ -8341,7 +8341,7 @@
         <v>498</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J68" t="s">
         <v>433</v>
@@ -8367,7 +8367,7 @@
         <v>499</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J69" t="s">
         <v>433</v>
@@ -8393,7 +8393,7 @@
         <v>500</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J70" t="s">
         <v>433</v>
@@ -8419,7 +8419,7 @@
         <v>501</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J71" t="s">
         <v>433</v>
@@ -8445,7 +8445,7 @@
         <v>502</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J72" t="s">
         <v>433</v>
@@ -8471,7 +8471,7 @@
         <v>503</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J73" t="s">
         <v>433</v>
@@ -8497,7 +8497,7 @@
         <v>504</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J74" t="s">
         <v>433</v>
@@ -8523,7 +8523,7 @@
         <v>505</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J75" t="s">
         <v>433</v>
@@ -8549,7 +8549,7 @@
         <v>506</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J76" t="s">
         <v>433</v>
@@ -8575,7 +8575,7 @@
         <v>507</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J77" t="s">
         <v>433</v>
@@ -8601,7 +8601,7 @@
         <v>508</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J78" t="s">
         <v>433</v>
@@ -8627,7 +8627,7 @@
         <v>509</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J79" t="s">
         <v>433</v>
@@ -8653,7 +8653,7 @@
         <v>510</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J80" t="s">
         <v>433</v>
@@ -8679,7 +8679,7 @@
         <v>511</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J81" t="s">
         <v>433</v>
@@ -8705,7 +8705,7 @@
         <v>512</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J82" t="s">
         <v>433</v>
@@ -8731,7 +8731,7 @@
         <v>513</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J83" t="s">
         <v>433</v>
@@ -8757,7 +8757,7 @@
         <v>514</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J84" t="s">
         <v>433</v>
@@ -8783,7 +8783,7 @@
         <v>515</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J85" t="s">
         <v>433</v>
@@ -8809,7 +8809,7 @@
         <v>516</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J86" t="s">
         <v>433</v>
@@ -8835,7 +8835,7 @@
         <v>517</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J87" t="s">
         <v>433</v>
@@ -8861,7 +8861,7 @@
         <v>518</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J88" t="s">
         <v>433</v>
@@ -8887,7 +8887,7 @@
         <v>519</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J89" t="s">
         <v>433</v>
@@ -8913,7 +8913,7 @@
         <v>520</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J90" t="s">
         <v>433</v>
@@ -8939,7 +8939,7 @@
         <v>521</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J91" t="s">
         <v>433</v>
@@ -8965,7 +8965,7 @@
         <v>522</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J92" t="s">
         <v>433</v>
@@ -8991,7 +8991,7 @@
         <v>523</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J93" t="s">
         <v>433</v>
@@ -9017,7 +9017,7 @@
         <v>524</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J94" t="s">
         <v>433</v>
@@ -9043,7 +9043,7 @@
         <v>525</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J95" t="s">
         <v>433</v>
@@ -9069,7 +9069,7 @@
         <v>526</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J96" t="s">
         <v>433</v>
@@ -9095,7 +9095,7 @@
         <v>527</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J97" t="s">
         <v>433</v>
@@ -9121,7 +9121,7 @@
         <v>528</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J98" t="s">
         <v>433</v>
@@ -9147,7 +9147,7 @@
         <v>529</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J99" t="s">
         <v>433</v>
@@ -9173,7 +9173,7 @@
         <v>530</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J100" t="s">
         <v>433</v>
@@ -9199,7 +9199,7 @@
         <v>531</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J101" t="s">
         <v>433</v>
@@ -9225,7 +9225,7 @@
         <v>532</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J102" t="s">
         <v>433</v>
@@ -9251,7 +9251,7 @@
         <v>533</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J103" t="s">
         <v>433</v>
@@ -9277,7 +9277,7 @@
         <v>534</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J104" t="s">
         <v>433</v>
@@ -9303,7 +9303,7 @@
         <v>535</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J105" t="s">
         <v>433</v>
@@ -9329,7 +9329,7 @@
         <v>536</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J106" t="s">
         <v>433</v>
@@ -9355,7 +9355,7 @@
         <v>537</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J107" t="s">
         <v>433</v>
@@ -9381,7 +9381,7 @@
         <v>538</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J108" t="s">
         <v>433</v>
@@ -9407,7 +9407,7 @@
         <v>539</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J109" t="s">
         <v>433</v>
@@ -9433,7 +9433,7 @@
         <v>540</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J110" t="s">
         <v>433</v>
@@ -9459,7 +9459,7 @@
         <v>541</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J111" t="s">
         <v>433</v>
@@ -9485,7 +9485,7 @@
         <v>542</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J112" t="s">
         <v>433</v>
@@ -9511,7 +9511,7 @@
         <v>543</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J113" t="s">
         <v>433</v>
@@ -9537,7 +9537,7 @@
         <v>544</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J114" t="s">
         <v>433</v>
@@ -9563,7 +9563,7 @@
         <v>545</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J115" t="s">
         <v>433</v>
@@ -9589,7 +9589,7 @@
         <v>546</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J116" t="s">
         <v>433</v>
@@ -9615,7 +9615,7 @@
         <v>547</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J117" t="s">
         <v>433</v>
@@ -9641,7 +9641,7 @@
         <v>548</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J118" t="s">
         <v>433</v>
@@ -9667,7 +9667,7 @@
         <v>549</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J119" t="s">
         <v>433</v>
@@ -9693,7 +9693,7 @@
         <v>550</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J120" t="s">
         <v>433</v>
@@ -9719,7 +9719,7 @@
         <v>551</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J121" t="s">
         <v>433</v>
@@ -9745,7 +9745,7 @@
         <v>552</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J122" t="s">
         <v>433</v>
@@ -9771,7 +9771,7 @@
         <v>553</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J123" t="s">
         <v>433</v>
@@ -9797,7 +9797,7 @@
         <v>554</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J124" t="s">
         <v>433</v>
@@ -9823,7 +9823,7 @@
         <v>555</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J125" t="s">
         <v>433</v>
@@ -9849,7 +9849,7 @@
         <v>556</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J126" t="s">
         <v>433</v>
@@ -9875,7 +9875,7 @@
         <v>557</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J127" t="s">
         <v>433</v>
@@ -9901,7 +9901,7 @@
         <v>558</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J128" t="s">
         <v>433</v>
@@ -9927,7 +9927,7 @@
         <v>559</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J129" t="s">
         <v>433</v>
@@ -9953,7 +9953,7 @@
         <v>560</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J130" t="s">
         <v>433</v>
@@ -9979,7 +9979,7 @@
         <v>561</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J131" t="s">
         <v>433</v>
@@ -10005,7 +10005,7 @@
         <v>562</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J132" t="s">
         <v>433</v>
@@ -10031,7 +10031,7 @@
         <v>563</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J133" t="s">
         <v>433</v>
@@ -10057,7 +10057,7 @@
         <v>564</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J134" t="s">
         <v>433</v>
@@ -10083,7 +10083,7 @@
         <v>565</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J135" t="s">
         <v>433</v>
@@ -10109,7 +10109,7 @@
         <v>566</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J136" t="s">
         <v>433</v>
@@ -10135,7 +10135,7 @@
         <v>567</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J137" t="s">
         <v>433</v>
@@ -10161,7 +10161,7 @@
         <v>568</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J138" t="s">
         <v>433</v>
@@ -10187,7 +10187,7 @@
         <v>569</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J139" t="s">
         <v>433</v>
@@ -10213,7 +10213,7 @@
         <v>570</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J140" t="s">
         <v>433</v>
@@ -10239,7 +10239,7 @@
         <v>571</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J141" t="s">
         <v>433</v>
@@ -10265,7 +10265,7 @@
         <v>572</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J142" t="s">
         <v>433</v>
@@ -10291,7 +10291,7 @@
         <v>573</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J143" t="s">
         <v>433</v>
@@ -10317,7 +10317,7 @@
         <v>574</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J144" t="s">
         <v>433</v>
@@ -10343,7 +10343,7 @@
         <v>575</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J145" t="s">
         <v>433</v>
@@ -10369,7 +10369,7 @@
         <v>576</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J146" t="s">
         <v>433</v>
@@ -10395,7 +10395,7 @@
         <v>577</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J147" t="s">
         <v>433</v>
@@ -10421,7 +10421,7 @@
         <v>578</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J148" t="s">
         <v>433</v>
@@ -10447,7 +10447,7 @@
         <v>579</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J149" t="s">
         <v>433</v>
@@ -10473,7 +10473,7 @@
         <v>580</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J150" t="s">
         <v>433</v>
@@ -10499,7 +10499,7 @@
         <v>581</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J151" t="s">
         <v>433</v>
@@ -10525,7 +10525,7 @@
         <v>582</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J152" t="s">
         <v>433</v>
@@ -10551,7 +10551,7 @@
         <v>583</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J153" t="s">
         <v>433</v>
@@ -10577,7 +10577,7 @@
         <v>584</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J154" t="s">
         <v>433</v>
@@ -10603,7 +10603,7 @@
         <v>585</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J155" t="s">
         <v>433</v>
@@ -10629,7 +10629,7 @@
         <v>586</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J156" t="s">
         <v>433</v>
@@ -10655,7 +10655,7 @@
         <v>587</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J157" t="s">
         <v>433</v>
@@ -10681,7 +10681,7 @@
         <v>588</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J158" t="s">
         <v>433</v>
@@ -10707,7 +10707,7 @@
         <v>589</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J159" t="s">
         <v>433</v>
@@ -10733,7 +10733,7 @@
         <v>590</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J160" t="s">
         <v>433</v>
@@ -10759,7 +10759,7 @@
         <v>591</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J161" t="s">
         <v>433</v>
@@ -10785,7 +10785,7 @@
         <v>592</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J162" t="s">
         <v>433</v>
@@ -10811,7 +10811,7 @@
         <v>593</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J163" t="s">
         <v>433</v>
@@ -10837,7 +10837,7 @@
         <v>594</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J164" t="s">
         <v>433</v>
@@ -10863,7 +10863,7 @@
         <v>595</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J165" t="s">
         <v>433</v>
@@ -10889,7 +10889,7 @@
         <v>596</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J166" t="s">
         <v>433</v>
@@ -10915,7 +10915,7 @@
         <v>597</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J167" t="s">
         <v>433</v>
@@ -10941,7 +10941,7 @@
         <v>598</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J168" t="s">
         <v>433</v>
@@ -10967,7 +10967,7 @@
         <v>599</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J169" t="s">
         <v>433</v>
@@ -10993,7 +10993,7 @@
         <v>600</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J170" t="s">
         <v>433</v>
@@ -11019,7 +11019,7 @@
         <v>601</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J171" t="s">
         <v>433</v>
@@ -11045,7 +11045,7 @@
         <v>602</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J172" t="s">
         <v>433</v>
@@ -11071,7 +11071,7 @@
         <v>603</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J173" t="s">
         <v>433</v>
@@ -11097,7 +11097,7 @@
         <v>604</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J174" t="s">
         <v>433</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J175" t="s">
         <v>433</v>
@@ -11149,7 +11149,7 @@
         <v>606</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J176" t="s">
         <v>433</v>
@@ -11175,7 +11175,7 @@
         <v>607</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J177" t="s">
         <v>433</v>
@@ -11201,7 +11201,7 @@
         <v>608</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J178" t="s">
         <v>433</v>
@@ -11227,7 +11227,7 @@
         <v>609</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J179" t="s">
         <v>433</v>
@@ -11253,7 +11253,7 @@
         <v>610</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J180" t="s">
         <v>433</v>
@@ -11279,7 +11279,7 @@
         <v>611</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J181" t="s">
         <v>433</v>
@@ -11305,7 +11305,7 @@
         <v>612</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J182" t="s">
         <v>433</v>
@@ -11331,7 +11331,7 @@
         <v>613</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J183" t="s">
         <v>433</v>
@@ -11357,7 +11357,7 @@
         <v>614</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J184" t="s">
         <v>433</v>
@@ -11383,7 +11383,7 @@
         <v>615</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J185" t="s">
         <v>433</v>
@@ -11409,7 +11409,7 @@
         <v>616</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J186" t="s">
         <v>433</v>
@@ -11435,7 +11435,7 @@
         <v>617</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J187" t="s">
         <v>433</v>
@@ -11461,7 +11461,7 @@
         <v>618</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J188" t="s">
         <v>433</v>
@@ -11487,7 +11487,7 @@
         <v>619</v>
       </c>
       <c r="I189">
-        <v>2.8400000000000002E-4</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J189" t="s">
         <v>433</v>
@@ -11513,7 +11513,7 @@
         <v>620</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J190" t="s">
         <v>433</v>
@@ -11539,7 +11539,7 @@
         <v>621</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J191" t="s">
         <v>433</v>
@@ -11565,7 +11565,7 @@
         <v>622</v>
       </c>
       <c r="I192">
-        <v>1.1037E-2</v>
+        <v>3.5340000000000003E-2</v>
       </c>
       <c r="J192" t="s">
         <v>433</v>
@@ -11591,7 +11591,7 @@
         <v>623</v>
       </c>
       <c r="I193">
-        <v>8.0480000000000013E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J193" t="s">
         <v>433</v>
@@ -11617,7 +11617,7 @@
         <v>624</v>
       </c>
       <c r="I194">
-        <v>6.2060000000000006E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J194" t="s">
         <v>433</v>
@@ -11643,7 +11643,7 @@
         <v>625</v>
       </c>
       <c r="I195">
-        <v>4.4350000000000006E-3</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J195" t="s">
         <v>433</v>
@@ -11669,7 +11669,7 @@
         <v>626</v>
       </c>
       <c r="I196">
-        <v>3.6288000000000001E-2</v>
+        <v>4.3092000000000005E-2</v>
       </c>
       <c r="J196" t="s">
         <v>433</v>
@@ -11695,7 +11695,7 @@
         <v>627</v>
       </c>
       <c r="I197">
-        <v>3.6120000000000002E-3</v>
+        <v>6.156E-3</v>
       </c>
       <c r="J197" t="s">
         <v>433</v>
@@ -11721,7 +11721,7 @@
         <v>628</v>
       </c>
       <c r="I198">
-        <v>3.3010000000000001E-3</v>
+        <v>6.156E-3</v>
       </c>
       <c r="J198" t="s">
         <v>433</v>
@@ -11747,7 +11747,7 @@
         <v>629</v>
       </c>
       <c r="I199">
-        <v>3.761E-3</v>
+        <v>6.156E-3</v>
       </c>
       <c r="J199" t="s">
         <v>433</v>
@@ -11773,7 +11773,7 @@
         <v>630</v>
       </c>
       <c r="I200">
-        <v>5.0961000000000006E-2</v>
+        <v>3.0780000000000002E-2</v>
       </c>
       <c r="J200" t="s">
         <v>433</v>
@@ -11799,7 +11799,7 @@
         <v>631</v>
       </c>
       <c r="I201">
-        <v>1.4761E-2</v>
+        <v>6.156E-3</v>
       </c>
       <c r="J201" t="s">
         <v>433</v>
@@ -11825,7 +11825,7 @@
         <v>632</v>
       </c>
       <c r="I202">
-        <v>2.0574000000000002E-2</v>
+        <v>6.156E-3</v>
       </c>
       <c r="J202" t="s">
         <v>433</v>
@@ -11851,7 +11851,7 @@
         <v>633</v>
       </c>
       <c r="I203">
-        <v>3.8729E-2</v>
+        <v>4.3092000000000005E-2</v>
       </c>
       <c r="J203" t="s">
         <v>433</v>
@@ -11877,7 +11877,7 @@
         <v>634</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J204" t="s">
         <v>433</v>
@@ -11903,7 +11903,7 @@
         <v>635</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J205" t="s">
         <v>433</v>
@@ -11929,7 +11929,7 @@
         <v>636</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J206" t="s">
         <v>433</v>
@@ -11955,7 +11955,7 @@
         <v>637</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J207" t="s">
         <v>433</v>
@@ -11981,7 +11981,7 @@
         <v>638</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J208" t="s">
         <v>433</v>
@@ -12007,7 +12007,7 @@
         <v>639</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J209" t="s">
         <v>433</v>
@@ -12033,7 +12033,7 @@
         <v>640</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J210" t="s">
         <v>433</v>
@@ -12059,7 +12059,7 @@
         <v>641</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J211" t="s">
         <v>433</v>
@@ -12085,7 +12085,7 @@
         <v>642</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J212" t="s">
         <v>433</v>
@@ -12111,7 +12111,7 @@
         <v>643</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J213" t="s">
         <v>433</v>
@@ -12137,7 +12137,7 @@
         <v>644</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J214" t="s">
         <v>433</v>
@@ -12163,7 +12163,7 @@
         <v>645</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J215" t="s">
         <v>433</v>
@@ -12189,7 +12189,7 @@
         <v>646</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J216" t="s">
         <v>433</v>
@@ -12215,7 +12215,7 @@
         <v>647</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J217" t="s">
         <v>433</v>
@@ -12241,7 +12241,7 @@
         <v>648</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J218" t="s">
         <v>433</v>
@@ -12267,7 +12267,7 @@
         <v>649</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J219" t="s">
         <v>433</v>
@@ -12293,7 +12293,7 @@
         <v>650</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J220" t="s">
         <v>433</v>
@@ -12319,7 +12319,7 @@
         <v>651</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J221" t="s">
         <v>433</v>
@@ -12345,7 +12345,7 @@
         <v>652</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J222" t="s">
         <v>433</v>
@@ -12371,7 +12371,7 @@
         <v>653</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J223" t="s">
         <v>433</v>
@@ -12397,7 +12397,7 @@
         <v>654</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J224" t="s">
         <v>433</v>
@@ -12423,7 +12423,7 @@
         <v>655</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J225" t="s">
         <v>433</v>
@@ -12449,7 +12449,7 @@
         <v>656</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J226" t="s">
         <v>433</v>
@@ -12475,7 +12475,7 @@
         <v>657</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J227" t="s">
         <v>433</v>
@@ -12501,7 +12501,7 @@
         <v>658</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J228" t="s">
         <v>433</v>
@@ -12527,7 +12527,7 @@
         <v>659</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J229" t="s">
         <v>433</v>
@@ -12553,7 +12553,7 @@
         <v>660</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J230" t="s">
         <v>433</v>
@@ -12579,7 +12579,7 @@
         <v>661</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J231" t="s">
         <v>433</v>
@@ -12605,7 +12605,7 @@
         <v>662</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J232" t="s">
         <v>433</v>
@@ -12631,7 +12631,7 @@
         <v>663</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J233" t="s">
         <v>433</v>
@@ -12657,7 +12657,7 @@
         <v>664</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J234" t="s">
         <v>433</v>
@@ -12683,7 +12683,7 @@
         <v>665</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J235" t="s">
         <v>433</v>
@@ -12709,7 +12709,7 @@
         <v>666</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J236" t="s">
         <v>433</v>
@@ -12735,7 +12735,7 @@
         <v>667</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J237" t="s">
         <v>433</v>
@@ -12761,7 +12761,7 @@
         <v>668</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J238" t="s">
         <v>433</v>
@@ -12787,7 +12787,7 @@
         <v>669</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J239" t="s">
         <v>433</v>
@@ -12813,7 +12813,7 @@
         <v>670</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J240" t="s">
         <v>433</v>
@@ -12839,7 +12839,7 @@
         <v>671</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J241" t="s">
         <v>433</v>
@@ -12865,7 +12865,7 @@
         <v>672</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J242" t="s">
         <v>433</v>
@@ -12891,7 +12891,7 @@
         <v>673</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J243" t="s">
         <v>433</v>
@@ -12917,7 +12917,7 @@
         <v>674</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J244" t="s">
         <v>433</v>
@@ -12943,7 +12943,7 @@
         <v>675</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J245" t="s">
         <v>433</v>
@@ -12969,7 +12969,7 @@
         <v>676</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J246" t="s">
         <v>433</v>
@@ -12995,7 +12995,7 @@
         <v>677</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J247" t="s">
         <v>433</v>
@@ -13021,7 +13021,7 @@
         <v>678</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J248" t="s">
         <v>433</v>
@@ -13047,7 +13047,7 @@
         <v>679</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J249" t="s">
         <v>433</v>
@@ -13073,7 +13073,7 @@
         <v>680</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J250" t="s">
         <v>433</v>
@@ -13099,7 +13099,7 @@
         <v>681</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J251" t="s">
         <v>433</v>
@@ -13125,7 +13125,7 @@
         <v>682</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J252" t="s">
         <v>433</v>
@@ -13151,7 +13151,7 @@
         <v>683</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J253" t="s">
         <v>433</v>
@@ -13177,7 +13177,7 @@
         <v>684</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J254" t="s">
         <v>433</v>
@@ -13203,7 +13203,7 @@
         <v>685</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J255" t="s">
         <v>433</v>
@@ -13229,7 +13229,7 @@
         <v>686</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J256" t="s">
         <v>433</v>
@@ -13255,7 +13255,7 @@
         <v>687</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J257" t="s">
         <v>433</v>
@@ -13281,7 +13281,7 @@
         <v>688</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J258" t="s">
         <v>433</v>
@@ -13307,7 +13307,7 @@
         <v>689</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J259" t="s">
         <v>433</v>
@@ -13333,7 +13333,7 @@
         <v>690</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J260" t="s">
         <v>433</v>
@@ -13359,7 +13359,7 @@
         <v>691</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J261" t="s">
         <v>433</v>
@@ -13385,7 +13385,7 @@
         <v>692</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J262" t="s">
         <v>433</v>
@@ -13411,7 +13411,7 @@
         <v>693</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J263" t="s">
         <v>433</v>
@@ -13437,7 +13437,7 @@
         <v>694</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J264" t="s">
         <v>433</v>
@@ -13463,7 +13463,7 @@
         <v>695</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J265" t="s">
         <v>433</v>
@@ -13489,7 +13489,7 @@
         <v>696</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J266" t="s">
         <v>433</v>
@@ -13515,7 +13515,7 @@
         <v>697</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J267" t="s">
         <v>433</v>
@@ -13541,7 +13541,7 @@
         <v>698</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J268" t="s">
         <v>433</v>
@@ -13567,7 +13567,7 @@
         <v>699</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J269" t="s">
         <v>433</v>
@@ -13593,7 +13593,7 @@
         <v>700</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J270" t="s">
         <v>433</v>
@@ -13619,7 +13619,7 @@
         <v>701</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J271" t="s">
         <v>433</v>
@@ -13645,7 +13645,7 @@
         <v>702</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J272" t="s">
         <v>433</v>
@@ -13671,7 +13671,7 @@
         <v>703</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J273" t="s">
         <v>433</v>
@@ -13697,7 +13697,7 @@
         <v>704</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J274" t="s">
         <v>433</v>
@@ -13723,7 +13723,7 @@
         <v>705</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J275" t="s">
         <v>433</v>
@@ -13749,7 +13749,7 @@
         <v>706</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J276" t="s">
         <v>433</v>
@@ -13775,7 +13775,7 @@
         <v>707</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J277" t="s">
         <v>433</v>
@@ -13801,7 +13801,7 @@
         <v>708</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J278" t="s">
         <v>433</v>
@@ -13827,7 +13827,7 @@
         <v>709</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J279" t="s">
         <v>433</v>
@@ -13853,7 +13853,7 @@
         <v>710</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J280" t="s">
         <v>433</v>
@@ -13879,7 +13879,7 @@
         <v>711</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J281" t="s">
         <v>433</v>
@@ -13905,7 +13905,7 @@
         <v>712</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J282" t="s">
         <v>433</v>
@@ -13931,7 +13931,7 @@
         <v>713</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J283" t="s">
         <v>433</v>
@@ -13957,7 +13957,7 @@
         <v>714</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J284" t="s">
         <v>433</v>
@@ -13983,7 +13983,7 @@
         <v>715</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J285" t="s">
         <v>433</v>
@@ -14009,7 +14009,7 @@
         <v>716</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J286" t="s">
         <v>433</v>
@@ -14035,7 +14035,7 @@
         <v>717</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J287" t="s">
         <v>433</v>
@@ -14061,7 +14061,7 @@
         <v>718</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J288" t="s">
         <v>433</v>
@@ -14087,7 +14087,7 @@
         <v>719</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J289" t="s">
         <v>433</v>
@@ -14113,7 +14113,7 @@
         <v>720</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J290" t="s">
         <v>433</v>
@@ -14139,7 +14139,7 @@
         <v>721</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J291" t="s">
         <v>433</v>
@@ -14165,7 +14165,7 @@
         <v>722</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J292" t="s">
         <v>433</v>
@@ -14191,7 +14191,7 @@
         <v>723</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J293" t="s">
         <v>433</v>
@@ -14217,7 +14217,7 @@
         <v>724</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J294" t="s">
         <v>433</v>
@@ -14243,7 +14243,7 @@
         <v>725</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J295" t="s">
         <v>433</v>
@@ -14269,7 +14269,7 @@
         <v>726</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J296" t="s">
         <v>433</v>
@@ -14295,7 +14295,7 @@
         <v>727</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J297" t="s">
         <v>433</v>
@@ -14321,7 +14321,7 @@
         <v>728</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J298" t="s">
         <v>433</v>
@@ -14347,7 +14347,7 @@
         <v>729</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J299" t="s">
         <v>433</v>
@@ -14373,7 +14373,7 @@
         <v>730</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J300" t="s">
         <v>433</v>
@@ -14399,7 +14399,7 @@
         <v>731</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J301" t="s">
         <v>433</v>
@@ -14425,7 +14425,7 @@
         <v>732</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J302" t="s">
         <v>433</v>
@@ -14451,7 +14451,7 @@
         <v>733</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J303" t="s">
         <v>433</v>
@@ -14477,7 +14477,7 @@
         <v>734</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J304" t="s">
         <v>433</v>
@@ -14503,7 +14503,7 @@
         <v>735</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J305" t="s">
         <v>433</v>
@@ -14529,7 +14529,7 @@
         <v>736</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J306" t="s">
         <v>433</v>
@@ -14555,7 +14555,7 @@
         <v>737</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J307" t="s">
         <v>433</v>
@@ -14581,7 +14581,7 @@
         <v>738</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J308" t="s">
         <v>433</v>
@@ -14607,7 +14607,7 @@
         <v>739</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J309" t="s">
         <v>433</v>
@@ -14633,7 +14633,7 @@
         <v>740</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J310" t="s">
         <v>433</v>
@@ -14659,7 +14659,7 @@
         <v>741</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J311" t="s">
         <v>433</v>
@@ -14685,7 +14685,7 @@
         <v>742</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J312" t="s">
         <v>433</v>
@@ -14711,7 +14711,7 @@
         <v>743</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J313" t="s">
         <v>433</v>
@@ -14737,7 +14737,7 @@
         <v>744</v>
       </c>
       <c r="I314">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J314" t="s">
         <v>433</v>
@@ -14763,7 +14763,7 @@
         <v>745</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J315" t="s">
         <v>433</v>
@@ -14789,7 +14789,7 @@
         <v>746</v>
       </c>
       <c r="I316">
-        <v>3.7300000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J316" t="s">
         <v>433</v>
@@ -14815,7 +14815,7 @@
         <v>747</v>
       </c>
       <c r="I317">
-        <v>2.369E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J317" t="s">
         <v>433</v>
@@ -14841,7 +14841,7 @@
         <v>748</v>
       </c>
       <c r="I318">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J318" t="s">
         <v>433</v>
@@ -14867,7 +14867,7 @@
         <v>749</v>
       </c>
       <c r="I319">
-        <v>3.7300000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J319" t="s">
         <v>433</v>
@@ -14893,7 +14893,7 @@
         <v>750</v>
       </c>
       <c r="I320">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J320" t="s">
         <v>433</v>
@@ -14919,7 +14919,7 @@
         <v>751</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J321" t="s">
         <v>433</v>
@@ -14945,7 +14945,7 @@
         <v>752</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J322" t="s">
         <v>433</v>
@@ -14971,7 +14971,7 @@
         <v>753</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J323" t="s">
         <v>433</v>
@@ -14997,7 +14997,7 @@
         <v>754</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J324" t="s">
         <v>433</v>
@@ -15023,7 +15023,7 @@
         <v>755</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J325" t="s">
         <v>433</v>
@@ -15049,7 +15049,7 @@
         <v>756</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J326" t="s">
         <v>433</v>
@@ -15075,7 +15075,7 @@
         <v>757</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J327" t="s">
         <v>433</v>
@@ -15101,7 +15101,7 @@
         <v>758</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J328" t="s">
         <v>433</v>
@@ -15127,7 +15127,7 @@
         <v>759</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J329" t="s">
         <v>433</v>
@@ -15153,7 +15153,7 @@
         <v>760</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J330" t="s">
         <v>433</v>
@@ -15179,7 +15179,7 @@
         <v>761</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J331" t="s">
         <v>433</v>
@@ -15205,7 +15205,7 @@
         <v>762</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J332" t="s">
         <v>433</v>
@@ -15231,7 +15231,7 @@
         <v>763</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J333" t="s">
         <v>433</v>
@@ -15257,7 +15257,7 @@
         <v>764</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J334" t="s">
         <v>433</v>
@@ -15283,7 +15283,7 @@
         <v>765</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J335" t="s">
         <v>433</v>
@@ -15309,7 +15309,7 @@
         <v>766</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J336" t="s">
         <v>433</v>
@@ -15335,7 +15335,7 @@
         <v>767</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J337" t="s">
         <v>433</v>
@@ -15361,7 +15361,7 @@
         <v>768</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J338" t="s">
         <v>433</v>
@@ -15387,7 +15387,7 @@
         <v>769</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J339" t="s">
         <v>433</v>
@@ -15413,7 +15413,7 @@
         <v>770</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J340" t="s">
         <v>433</v>
@@ -15439,7 +15439,7 @@
         <v>771</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J341" t="s">
         <v>433</v>
@@ -15465,7 +15465,7 @@
         <v>772</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J342" t="s">
         <v>433</v>
@@ -15491,7 +15491,7 @@
         <v>773</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J343" t="s">
         <v>433</v>
@@ -15517,7 +15517,7 @@
         <v>774</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J344" t="s">
         <v>433</v>
@@ -15543,7 +15543,7 @@
         <v>775</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J345" t="s">
         <v>433</v>
@@ -15569,7 +15569,7 @@
         <v>776</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J346" t="s">
         <v>433</v>
@@ -15595,7 +15595,7 @@
         <v>777</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J347" t="s">
         <v>433</v>
@@ -15621,7 +15621,7 @@
         <v>778</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J348" t="s">
         <v>433</v>
@@ -15647,7 +15647,7 @@
         <v>779</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J349" t="s">
         <v>433</v>
@@ -15673,7 +15673,7 @@
         <v>780</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J350" t="s">
         <v>433</v>
@@ -15699,7 +15699,7 @@
         <v>781</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J351" t="s">
         <v>433</v>
@@ -15725,7 +15725,7 @@
         <v>782</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J352" t="s">
         <v>433</v>
@@ -15751,7 +15751,7 @@
         <v>783</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J353" t="s">
         <v>433</v>
@@ -15777,7 +15777,7 @@
         <v>784</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J354" t="s">
         <v>433</v>
@@ -15803,7 +15803,7 @@
         <v>785</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J355" t="s">
         <v>433</v>
@@ -15829,7 +15829,7 @@
         <v>786</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J356" t="s">
         <v>433</v>
@@ -15855,7 +15855,7 @@
         <v>787</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J357" t="s">
         <v>433</v>
@@ -15881,7 +15881,7 @@
         <v>788</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J358" t="s">
         <v>433</v>
@@ -15907,7 +15907,7 @@
         <v>789</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J359" t="s">
         <v>433</v>
@@ -15933,7 +15933,7 @@
         <v>790</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J360" t="s">
         <v>433</v>
@@ -15959,7 +15959,7 @@
         <v>791</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J361" t="s">
         <v>433</v>
@@ -15985,7 +15985,7 @@
         <v>792</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J362" t="s">
         <v>433</v>
@@ -16011,7 +16011,7 @@
         <v>793</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J363" t="s">
         <v>433</v>
@@ -16037,7 +16037,7 @@
         <v>794</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J364" t="s">
         <v>433</v>
@@ -16063,7 +16063,7 @@
         <v>795</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J365" t="s">
         <v>433</v>
@@ -16089,7 +16089,7 @@
         <v>796</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J366" t="s">
         <v>433</v>
@@ -16115,7 +16115,7 @@
         <v>797</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J367" t="s">
         <v>433</v>
@@ -16141,7 +16141,7 @@
         <v>798</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J368" t="s">
         <v>433</v>
@@ -16167,7 +16167,7 @@
         <v>799</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J369" t="s">
         <v>433</v>
@@ -16193,7 +16193,7 @@
         <v>800</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J370" t="s">
         <v>433</v>
@@ -16219,7 +16219,7 @@
         <v>801</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J371" t="s">
         <v>433</v>
@@ -16245,7 +16245,7 @@
         <v>802</v>
       </c>
       <c r="I372">
-        <v>1.5541000000000001E-2</v>
+        <v>2.3940000000000003E-2</v>
       </c>
       <c r="J372" t="s">
         <v>433</v>
@@ -16271,7 +16271,7 @@
         <v>803</v>
       </c>
       <c r="I373">
-        <v>2.0249999999999999E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J373" t="s">
         <v>433</v>
@@ -16297,7 +16297,7 @@
         <v>804</v>
       </c>
       <c r="I374">
-        <v>1.487E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J374" t="s">
         <v>433</v>
@@ -16323,7 +16323,7 @@
         <v>805</v>
       </c>
       <c r="I375">
-        <v>3.431E-3</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J375" t="s">
         <v>433</v>
@@ -16349,7 +16349,7 @@
         <v>806</v>
       </c>
       <c r="I376">
-        <v>0.145644</v>
+        <v>1.7193E-2</v>
       </c>
       <c r="J376" t="s">
         <v>433</v>
@@ -16375,7 +16375,7 @@
         <v>807</v>
       </c>
       <c r="I377">
-        <v>1.8669999999999999E-2</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J377" t="s">
         <v>433</v>
@@ -16401,7 +16401,7 @@
         <v>808</v>
       </c>
       <c r="I378">
-        <v>1.4532E-2</v>
+        <v>3.4200000000000003E-3</v>
       </c>
       <c r="J378" t="s">
         <v>433</v>
@@ -16427,7 +16427,7 @@
         <v>809</v>
       </c>
       <c r="I379">
-        <v>1.9970000000000002E-2</v>
+        <v>2.3940000000000003E-2</v>
       </c>
       <c r="J379" t="s">
         <v>433</v>
@@ -16453,7 +16453,7 @@
         <v>810</v>
       </c>
       <c r="I380">
-        <v>2.287E-3</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J380" t="s">
         <v>433</v>
@@ -16479,7 +16479,7 @@
         <v>811</v>
       </c>
       <c r="I381">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J381" t="s">
         <v>433</v>
@@ -16505,7 +16505,7 @@
         <v>812</v>
       </c>
       <c r="I382">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J382" t="s">
         <v>433</v>
@@ -16531,7 +16531,7 @@
         <v>813</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J383" t="s">
         <v>433</v>
@@ -16557,7 +16557,7 @@
         <v>814</v>
       </c>
       <c r="I384">
-        <v>6.87E-4</v>
+        <v>1.7670000000000002E-2</v>
       </c>
       <c r="J384" t="s">
         <v>433</v>
@@ -16583,7 +16583,7 @@
         <v>815</v>
       </c>
       <c r="I385">
-        <v>1.1000000000000001E-3</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J385" t="s">
         <v>433</v>
@@ -16609,7 +16609,7 @@
         <v>816</v>
       </c>
       <c r="I386">
-        <v>4.7900000000000004E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J386" t="s">
         <v>433</v>
@@ -16635,7 +16635,7 @@
         <v>817</v>
       </c>
       <c r="I387">
-        <v>5.2300000000000003E-4</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J387" t="s">
         <v>433</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E81E7A-2057-4698-8495-4ACECEE69238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF332F-0E70-4D91-9B4F-DC335139015F}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34318759-A4CD-4EFB-997C-98EB1DE6CC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FB680-24C4-4339-8632-3134D8085589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</t>
-  </si>
-  <si>
-    <t>S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</t>
+    <t>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17</t>
+  </si>
+  <si>
+    <t>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</v>
+        <v>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</v>
+        <v>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E1E404-F5D6-4233-A33F-91F8527C7BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D7B40-1A00-47A1-A8B3-2D5A6ADAF991}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFF51ED-CB69-41AC-9958-593E2BAB4440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1DE277-4FC5-4B59-8AC0-8FCCA1E6CC6E}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6623,7 +6623,7 @@
         <v>432</v>
       </c>
       <c r="I4">
-        <v>4.7082000000000006E-2</v>
+        <v>4.4613E-2</v>
       </c>
       <c r="J4" t="s">
         <v>433</v>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6658,7 +6658,7 @@
         <v>435</v>
       </c>
       <c r="I5">
-        <v>6.7260000000000002E-3</v>
+        <v>6.3049999999999998E-3</v>
       </c>
       <c r="J5" t="s">
         <v>433</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825429</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6693,7 +6693,7 @@
         <v>436</v>
       </c>
       <c r="I6">
-        <v>6.7260000000000002E-3</v>
+        <v>6.4920000000000004E-3</v>
       </c>
       <c r="J6" t="s">
         <v>433</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075638</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6728,7 +6728,7 @@
         <v>437</v>
       </c>
       <c r="I7">
-        <v>6.7260000000000002E-3</v>
+        <v>6.901E-3</v>
       </c>
       <c r="J7" t="s">
         <v>433</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6763,7 +6763,7 @@
         <v>438</v>
       </c>
       <c r="I8">
-        <v>3.3649999999999999E-2</v>
+        <v>3.7770999999999999E-2</v>
       </c>
       <c r="J8" t="s">
         <v>433</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6798,7 +6798,7 @@
         <v>439</v>
       </c>
       <c r="I9">
-        <v>6.7260000000000002E-3</v>
+        <v>8.1300000000000001E-3</v>
       </c>
       <c r="J9" t="s">
         <v>433</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -6833,7 +6833,7 @@
         <v>440</v>
       </c>
       <c r="I10">
-        <v>6.7260000000000002E-3</v>
+        <v>7.927E-3</v>
       </c>
       <c r="J10" t="s">
         <v>433</v>
@@ -6859,7 +6859,7 @@
         <v>441</v>
       </c>
       <c r="I11">
-        <v>4.7082000000000006E-2</v>
+        <v>5.0334999999999998E-2</v>
       </c>
       <c r="J11" t="s">
         <v>433</v>
@@ -6885,7 +6885,7 @@
         <v>442</v>
       </c>
       <c r="I12">
-        <v>9.1770000000000004E-2</v>
+        <v>8.3912E-2</v>
       </c>
       <c r="J12" t="s">
         <v>433</v>
@@ -6911,7 +6911,7 @@
         <v>443</v>
       </c>
       <c r="I13">
-        <v>1.311E-2</v>
+        <v>1.184E-2</v>
       </c>
       <c r="J13" t="s">
         <v>433</v>
@@ -6937,7 +6937,7 @@
         <v>444</v>
       </c>
       <c r="I14">
-        <v>1.311E-2</v>
+        <v>1.1813000000000001E-2</v>
       </c>
       <c r="J14" t="s">
         <v>433</v>
@@ -6963,7 +6963,7 @@
         <v>445</v>
       </c>
       <c r="I15">
-        <v>1.311E-2</v>
+        <v>1.2109E-2</v>
       </c>
       <c r="J15" t="s">
         <v>433</v>
@@ -6989,7 +6989,7 @@
         <v>446</v>
       </c>
       <c r="I16">
-        <v>6.5549999999999997E-2</v>
+        <v>7.1895000000000001E-2</v>
       </c>
       <c r="J16" t="s">
         <v>433</v>
@@ -7015,7 +7015,7 @@
         <v>447</v>
       </c>
       <c r="I17">
-        <v>1.311E-2</v>
+        <v>1.6522999999999999E-2</v>
       </c>
       <c r="J17" t="s">
         <v>433</v>
@@ -7041,7 +7041,7 @@
         <v>448</v>
       </c>
       <c r="I18">
-        <v>1.311E-2</v>
+        <v>1.5982E-2</v>
       </c>
       <c r="J18" t="s">
         <v>433</v>
@@ -7067,7 +7067,7 @@
         <v>449</v>
       </c>
       <c r="I19">
-        <v>9.1770000000000004E-2</v>
+        <v>8.8926000000000005E-2</v>
       </c>
       <c r="J19" t="s">
         <v>433</v>
@@ -7093,7 +7093,7 @@
         <v>450</v>
       </c>
       <c r="I20">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J20" t="s">
         <v>433</v>
@@ -7119,7 +7119,7 @@
         <v>451</v>
       </c>
       <c r="I21">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J21" t="s">
         <v>433</v>
@@ -7145,7 +7145,7 @@
         <v>452</v>
       </c>
       <c r="I22">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J22" t="s">
         <v>433</v>
@@ -7171,7 +7171,7 @@
         <v>453</v>
       </c>
       <c r="I23">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J23" t="s">
         <v>433</v>
@@ -7197,7 +7197,7 @@
         <v>454</v>
       </c>
       <c r="I24">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J24" t="s">
         <v>433</v>
@@ -7223,7 +7223,7 @@
         <v>455</v>
       </c>
       <c r="I25">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J25" t="s">
         <v>433</v>
@@ -7249,7 +7249,7 @@
         <v>456</v>
       </c>
       <c r="I26">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J26" t="s">
         <v>433</v>
@@ -7275,7 +7275,7 @@
         <v>457</v>
       </c>
       <c r="I27">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J27" t="s">
         <v>433</v>
@@ -7301,7 +7301,7 @@
         <v>458</v>
       </c>
       <c r="I28">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J28" t="s">
         <v>433</v>
@@ -7327,7 +7327,7 @@
         <v>459</v>
       </c>
       <c r="I29">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J29" t="s">
         <v>433</v>
@@ -7353,7 +7353,7 @@
         <v>460</v>
       </c>
       <c r="I30">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J30" t="s">
         <v>433</v>
@@ -7379,7 +7379,7 @@
         <v>461</v>
       </c>
       <c r="I31">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J31" t="s">
         <v>433</v>
@@ -7405,7 +7405,7 @@
         <v>462</v>
       </c>
       <c r="I32">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J32" t="s">
         <v>433</v>
@@ -7431,7 +7431,7 @@
         <v>463</v>
       </c>
       <c r="I33">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J33" t="s">
         <v>433</v>
@@ -7457,7 +7457,7 @@
         <v>464</v>
       </c>
       <c r="I34">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J34" t="s">
         <v>433</v>
@@ -7483,7 +7483,7 @@
         <v>465</v>
       </c>
       <c r="I35">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J35" t="s">
         <v>433</v>
@@ -7509,7 +7509,7 @@
         <v>466</v>
       </c>
       <c r="I36">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J36" t="s">
         <v>433</v>
@@ -7535,7 +7535,7 @@
         <v>467</v>
       </c>
       <c r="I37">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J37" t="s">
         <v>433</v>
@@ -7561,7 +7561,7 @@
         <v>468</v>
       </c>
       <c r="I38">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J38" t="s">
         <v>433</v>
@@ -7587,7 +7587,7 @@
         <v>469</v>
       </c>
       <c r="I39">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J39" t="s">
         <v>433</v>
@@ -7613,7 +7613,7 @@
         <v>470</v>
       </c>
       <c r="I40">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J40" t="s">
         <v>433</v>
@@ -7639,7 +7639,7 @@
         <v>471</v>
       </c>
       <c r="I41">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J41" t="s">
         <v>433</v>
@@ -7665,7 +7665,7 @@
         <v>472</v>
       </c>
       <c r="I42">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J42" t="s">
         <v>433</v>
@@ -7691,7 +7691,7 @@
         <v>473</v>
       </c>
       <c r="I43">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J43" t="s">
         <v>433</v>
@@ -7717,7 +7717,7 @@
         <v>474</v>
       </c>
       <c r="I44">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J44" t="s">
         <v>433</v>
@@ -7743,7 +7743,7 @@
         <v>475</v>
       </c>
       <c r="I45">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J45" t="s">
         <v>433</v>
@@ -7769,7 +7769,7 @@
         <v>476</v>
       </c>
       <c r="I46">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J46" t="s">
         <v>433</v>
@@ -7795,7 +7795,7 @@
         <v>477</v>
       </c>
       <c r="I47">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J47" t="s">
         <v>433</v>
@@ -7821,7 +7821,7 @@
         <v>478</v>
       </c>
       <c r="I48">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J48" t="s">
         <v>433</v>
@@ -7847,7 +7847,7 @@
         <v>479</v>
       </c>
       <c r="I49">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J49" t="s">
         <v>433</v>
@@ -7873,7 +7873,7 @@
         <v>480</v>
       </c>
       <c r="I50">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J50" t="s">
         <v>433</v>
@@ -7899,7 +7899,7 @@
         <v>481</v>
       </c>
       <c r="I51">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J51" t="s">
         <v>433</v>
@@ -7925,7 +7925,7 @@
         <v>482</v>
       </c>
       <c r="I52">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J52" t="s">
         <v>433</v>
@@ -7951,7 +7951,7 @@
         <v>483</v>
       </c>
       <c r="I53">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J53" t="s">
         <v>433</v>
@@ -7977,7 +7977,7 @@
         <v>484</v>
       </c>
       <c r="I54">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J54" t="s">
         <v>433</v>
@@ -8003,7 +8003,7 @@
         <v>485</v>
       </c>
       <c r="I55">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J55" t="s">
         <v>433</v>
@@ -8029,7 +8029,7 @@
         <v>486</v>
       </c>
       <c r="I56">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J56" t="s">
         <v>433</v>
@@ -8055,7 +8055,7 @@
         <v>487</v>
       </c>
       <c r="I57">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J57" t="s">
         <v>433</v>
@@ -8081,7 +8081,7 @@
         <v>488</v>
       </c>
       <c r="I58">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J58" t="s">
         <v>433</v>
@@ -8107,7 +8107,7 @@
         <v>489</v>
       </c>
       <c r="I59">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J59" t="s">
         <v>433</v>
@@ -8133,7 +8133,7 @@
         <v>490</v>
       </c>
       <c r="I60">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J60" t="s">
         <v>433</v>
@@ -8159,7 +8159,7 @@
         <v>491</v>
       </c>
       <c r="I61">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J61" t="s">
         <v>433</v>
@@ -8185,7 +8185,7 @@
         <v>492</v>
       </c>
       <c r="I62">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J62" t="s">
         <v>433</v>
@@ -8211,7 +8211,7 @@
         <v>493</v>
       </c>
       <c r="I63">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J63" t="s">
         <v>433</v>
@@ -8237,7 +8237,7 @@
         <v>494</v>
       </c>
       <c r="I64">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J64" t="s">
         <v>433</v>
@@ -8263,7 +8263,7 @@
         <v>495</v>
       </c>
       <c r="I65">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J65" t="s">
         <v>433</v>
@@ -8289,7 +8289,7 @@
         <v>496</v>
       </c>
       <c r="I66">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J66" t="s">
         <v>433</v>
@@ -8315,7 +8315,7 @@
         <v>497</v>
       </c>
       <c r="I67">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J67" t="s">
         <v>433</v>
@@ -8341,7 +8341,7 @@
         <v>498</v>
       </c>
       <c r="I68">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J68" t="s">
         <v>433</v>
@@ -8367,7 +8367,7 @@
         <v>499</v>
       </c>
       <c r="I69">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J69" t="s">
         <v>433</v>
@@ -8393,7 +8393,7 @@
         <v>500</v>
       </c>
       <c r="I70">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J70" t="s">
         <v>433</v>
@@ -8419,7 +8419,7 @@
         <v>501</v>
       </c>
       <c r="I71">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J71" t="s">
         <v>433</v>
@@ -8445,7 +8445,7 @@
         <v>502</v>
       </c>
       <c r="I72">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J72" t="s">
         <v>433</v>
@@ -8471,7 +8471,7 @@
         <v>503</v>
       </c>
       <c r="I73">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J73" t="s">
         <v>433</v>
@@ -8497,7 +8497,7 @@
         <v>504</v>
       </c>
       <c r="I74">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J74" t="s">
         <v>433</v>
@@ -8523,7 +8523,7 @@
         <v>505</v>
       </c>
       <c r="I75">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J75" t="s">
         <v>433</v>
@@ -8549,7 +8549,7 @@
         <v>506</v>
       </c>
       <c r="I76">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J76" t="s">
         <v>433</v>
@@ -8575,7 +8575,7 @@
         <v>507</v>
       </c>
       <c r="I77">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J77" t="s">
         <v>433</v>
@@ -8601,7 +8601,7 @@
         <v>508</v>
       </c>
       <c r="I78">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J78" t="s">
         <v>433</v>
@@ -8627,7 +8627,7 @@
         <v>509</v>
       </c>
       <c r="I79">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J79" t="s">
         <v>433</v>
@@ -8653,7 +8653,7 @@
         <v>510</v>
       </c>
       <c r="I80">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J80" t="s">
         <v>433</v>
@@ -8679,7 +8679,7 @@
         <v>511</v>
       </c>
       <c r="I81">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J81" t="s">
         <v>433</v>
@@ -8705,7 +8705,7 @@
         <v>512</v>
       </c>
       <c r="I82">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J82" t="s">
         <v>433</v>
@@ -8731,7 +8731,7 @@
         <v>513</v>
       </c>
       <c r="I83">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J83" t="s">
         <v>433</v>
@@ -8757,7 +8757,7 @@
         <v>514</v>
       </c>
       <c r="I84">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J84" t="s">
         <v>433</v>
@@ -8783,7 +8783,7 @@
         <v>515</v>
       </c>
       <c r="I85">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J85" t="s">
         <v>433</v>
@@ -8809,7 +8809,7 @@
         <v>516</v>
       </c>
       <c r="I86">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J86" t="s">
         <v>433</v>
@@ -8835,7 +8835,7 @@
         <v>517</v>
       </c>
       <c r="I87">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J87" t="s">
         <v>433</v>
@@ -8861,7 +8861,7 @@
         <v>518</v>
       </c>
       <c r="I88">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J88" t="s">
         <v>433</v>
@@ -8887,7 +8887,7 @@
         <v>519</v>
       </c>
       <c r="I89">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J89" t="s">
         <v>433</v>
@@ -8913,7 +8913,7 @@
         <v>520</v>
       </c>
       <c r="I90">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J90" t="s">
         <v>433</v>
@@ -8939,7 +8939,7 @@
         <v>521</v>
       </c>
       <c r="I91">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J91" t="s">
         <v>433</v>
@@ -8965,7 +8965,7 @@
         <v>522</v>
       </c>
       <c r="I92">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J92" t="s">
         <v>433</v>
@@ -8991,7 +8991,7 @@
         <v>523</v>
       </c>
       <c r="I93">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J93" t="s">
         <v>433</v>
@@ -9017,7 +9017,7 @@
         <v>524</v>
       </c>
       <c r="I94">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J94" t="s">
         <v>433</v>
@@ -9043,7 +9043,7 @@
         <v>525</v>
       </c>
       <c r="I95">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J95" t="s">
         <v>433</v>
@@ -9069,7 +9069,7 @@
         <v>526</v>
       </c>
       <c r="I96">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J96" t="s">
         <v>433</v>
@@ -9095,7 +9095,7 @@
         <v>527</v>
       </c>
       <c r="I97">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J97" t="s">
         <v>433</v>
@@ -9121,7 +9121,7 @@
         <v>528</v>
       </c>
       <c r="I98">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J98" t="s">
         <v>433</v>
@@ -9147,7 +9147,7 @@
         <v>529</v>
       </c>
       <c r="I99">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J99" t="s">
         <v>433</v>
@@ -9173,7 +9173,7 @@
         <v>530</v>
       </c>
       <c r="I100">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J100" t="s">
         <v>433</v>
@@ -9199,7 +9199,7 @@
         <v>531</v>
       </c>
       <c r="I101">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J101" t="s">
         <v>433</v>
@@ -9225,7 +9225,7 @@
         <v>532</v>
       </c>
       <c r="I102">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J102" t="s">
         <v>433</v>
@@ -9251,7 +9251,7 @@
         <v>533</v>
       </c>
       <c r="I103">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J103" t="s">
         <v>433</v>
@@ -9277,7 +9277,7 @@
         <v>534</v>
       </c>
       <c r="I104">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J104" t="s">
         <v>433</v>
@@ -9303,7 +9303,7 @@
         <v>535</v>
       </c>
       <c r="I105">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J105" t="s">
         <v>433</v>
@@ -9329,7 +9329,7 @@
         <v>536</v>
       </c>
       <c r="I106">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J106" t="s">
         <v>433</v>
@@ -9355,7 +9355,7 @@
         <v>537</v>
       </c>
       <c r="I107">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J107" t="s">
         <v>433</v>
@@ -9381,7 +9381,7 @@
         <v>538</v>
       </c>
       <c r="I108">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J108" t="s">
         <v>433</v>
@@ -9407,7 +9407,7 @@
         <v>539</v>
       </c>
       <c r="I109">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J109" t="s">
         <v>433</v>
@@ -9433,7 +9433,7 @@
         <v>540</v>
       </c>
       <c r="I110">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J110" t="s">
         <v>433</v>
@@ -9459,7 +9459,7 @@
         <v>541</v>
       </c>
       <c r="I111">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J111" t="s">
         <v>433</v>
@@ -9485,7 +9485,7 @@
         <v>542</v>
       </c>
       <c r="I112">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J112" t="s">
         <v>433</v>
@@ -9511,7 +9511,7 @@
         <v>543</v>
       </c>
       <c r="I113">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J113" t="s">
         <v>433</v>
@@ -9537,7 +9537,7 @@
         <v>544</v>
       </c>
       <c r="I114">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J114" t="s">
         <v>433</v>
@@ -9563,7 +9563,7 @@
         <v>545</v>
       </c>
       <c r="I115">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J115" t="s">
         <v>433</v>
@@ -9589,7 +9589,7 @@
         <v>546</v>
       </c>
       <c r="I116">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J116" t="s">
         <v>433</v>
@@ -9615,7 +9615,7 @@
         <v>547</v>
       </c>
       <c r="I117">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J117" t="s">
         <v>433</v>
@@ -9641,7 +9641,7 @@
         <v>548</v>
       </c>
       <c r="I118">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J118" t="s">
         <v>433</v>
@@ -9667,7 +9667,7 @@
         <v>549</v>
       </c>
       <c r="I119">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J119" t="s">
         <v>433</v>
@@ -9693,7 +9693,7 @@
         <v>550</v>
       </c>
       <c r="I120">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J120" t="s">
         <v>433</v>
@@ -9719,7 +9719,7 @@
         <v>551</v>
       </c>
       <c r="I121">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J121" t="s">
         <v>433</v>
@@ -9745,7 +9745,7 @@
         <v>552</v>
       </c>
       <c r="I122">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J122" t="s">
         <v>433</v>
@@ -9771,7 +9771,7 @@
         <v>553</v>
       </c>
       <c r="I123">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J123" t="s">
         <v>433</v>
@@ -9797,7 +9797,7 @@
         <v>554</v>
       </c>
       <c r="I124">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J124" t="s">
         <v>433</v>
@@ -9823,7 +9823,7 @@
         <v>555</v>
       </c>
       <c r="I125">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J125" t="s">
         <v>433</v>
@@ -9849,7 +9849,7 @@
         <v>556</v>
       </c>
       <c r="I126">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J126" t="s">
         <v>433</v>
@@ -9875,7 +9875,7 @@
         <v>557</v>
       </c>
       <c r="I127">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J127" t="s">
         <v>433</v>
@@ -9901,7 +9901,7 @@
         <v>558</v>
       </c>
       <c r="I128">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J128" t="s">
         <v>433</v>
@@ -9927,7 +9927,7 @@
         <v>559</v>
       </c>
       <c r="I129">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J129" t="s">
         <v>433</v>
@@ -9953,7 +9953,7 @@
         <v>560</v>
       </c>
       <c r="I130">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J130" t="s">
         <v>433</v>
@@ -9979,7 +9979,7 @@
         <v>561</v>
       </c>
       <c r="I131">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J131" t="s">
         <v>433</v>
@@ -10005,7 +10005,7 @@
         <v>562</v>
       </c>
       <c r="I132">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J132" t="s">
         <v>433</v>
@@ -10031,7 +10031,7 @@
         <v>563</v>
       </c>
       <c r="I133">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J133" t="s">
         <v>433</v>
@@ -10057,7 +10057,7 @@
         <v>564</v>
       </c>
       <c r="I134">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J134" t="s">
         <v>433</v>
@@ -10083,7 +10083,7 @@
         <v>565</v>
       </c>
       <c r="I135">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J135" t="s">
         <v>433</v>
@@ -10109,7 +10109,7 @@
         <v>566</v>
       </c>
       <c r="I136">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J136" t="s">
         <v>433</v>
@@ -10135,7 +10135,7 @@
         <v>567</v>
       </c>
       <c r="I137">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J137" t="s">
         <v>433</v>
@@ -10161,7 +10161,7 @@
         <v>568</v>
       </c>
       <c r="I138">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J138" t="s">
         <v>433</v>
@@ -10187,7 +10187,7 @@
         <v>569</v>
       </c>
       <c r="I139">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J139" t="s">
         <v>433</v>
@@ -10213,7 +10213,7 @@
         <v>570</v>
       </c>
       <c r="I140">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J140" t="s">
         <v>433</v>
@@ -10239,7 +10239,7 @@
         <v>571</v>
       </c>
       <c r="I141">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J141" t="s">
         <v>433</v>
@@ -10265,7 +10265,7 @@
         <v>572</v>
       </c>
       <c r="I142">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J142" t="s">
         <v>433</v>
@@ -10291,7 +10291,7 @@
         <v>573</v>
       </c>
       <c r="I143">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J143" t="s">
         <v>433</v>
@@ -10317,7 +10317,7 @@
         <v>574</v>
       </c>
       <c r="I144">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J144" t="s">
         <v>433</v>
@@ -10343,7 +10343,7 @@
         <v>575</v>
       </c>
       <c r="I145">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J145" t="s">
         <v>433</v>
@@ -10369,7 +10369,7 @@
         <v>576</v>
       </c>
       <c r="I146">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J146" t="s">
         <v>433</v>
@@ -10395,7 +10395,7 @@
         <v>577</v>
       </c>
       <c r="I147">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J147" t="s">
         <v>433</v>
@@ -10421,7 +10421,7 @@
         <v>578</v>
       </c>
       <c r="I148">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J148" t="s">
         <v>433</v>
@@ -10447,7 +10447,7 @@
         <v>579</v>
       </c>
       <c r="I149">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J149" t="s">
         <v>433</v>
@@ -10473,7 +10473,7 @@
         <v>580</v>
       </c>
       <c r="I150">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J150" t="s">
         <v>433</v>
@@ -10499,7 +10499,7 @@
         <v>581</v>
       </c>
       <c r="I151">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J151" t="s">
         <v>433</v>
@@ -10525,7 +10525,7 @@
         <v>582</v>
       </c>
       <c r="I152">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J152" t="s">
         <v>433</v>
@@ -10551,7 +10551,7 @@
         <v>583</v>
       </c>
       <c r="I153">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J153" t="s">
         <v>433</v>
@@ -10577,7 +10577,7 @@
         <v>584</v>
       </c>
       <c r="I154">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J154" t="s">
         <v>433</v>
@@ -10603,7 +10603,7 @@
         <v>585</v>
       </c>
       <c r="I155">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J155" t="s">
         <v>433</v>
@@ -10629,7 +10629,7 @@
         <v>586</v>
       </c>
       <c r="I156">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J156" t="s">
         <v>433</v>
@@ -10655,7 +10655,7 @@
         <v>587</v>
       </c>
       <c r="I157">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J157" t="s">
         <v>433</v>
@@ -10681,7 +10681,7 @@
         <v>588</v>
       </c>
       <c r="I158">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J158" t="s">
         <v>433</v>
@@ -10707,7 +10707,7 @@
         <v>589</v>
       </c>
       <c r="I159">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J159" t="s">
         <v>433</v>
@@ -10733,7 +10733,7 @@
         <v>590</v>
       </c>
       <c r="I160">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J160" t="s">
         <v>433</v>
@@ -10759,7 +10759,7 @@
         <v>591</v>
       </c>
       <c r="I161">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J161" t="s">
         <v>433</v>
@@ -10785,7 +10785,7 @@
         <v>592</v>
       </c>
       <c r="I162">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J162" t="s">
         <v>433</v>
@@ -10811,7 +10811,7 @@
         <v>593</v>
       </c>
       <c r="I163">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J163" t="s">
         <v>433</v>
@@ -10837,7 +10837,7 @@
         <v>594</v>
       </c>
       <c r="I164">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J164" t="s">
         <v>433</v>
@@ -10863,7 +10863,7 @@
         <v>595</v>
       </c>
       <c r="I165">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J165" t="s">
         <v>433</v>
@@ -10889,7 +10889,7 @@
         <v>596</v>
       </c>
       <c r="I166">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J166" t="s">
         <v>433</v>
@@ -10915,7 +10915,7 @@
         <v>597</v>
       </c>
       <c r="I167">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J167" t="s">
         <v>433</v>
@@ -10941,7 +10941,7 @@
         <v>598</v>
       </c>
       <c r="I168">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J168" t="s">
         <v>433</v>
@@ -10967,7 +10967,7 @@
         <v>599</v>
       </c>
       <c r="I169">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J169" t="s">
         <v>433</v>
@@ -10993,7 +10993,7 @@
         <v>600</v>
       </c>
       <c r="I170">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J170" t="s">
         <v>433</v>
@@ -11019,7 +11019,7 @@
         <v>601</v>
       </c>
       <c r="I171">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J171" t="s">
         <v>433</v>
@@ -11045,7 +11045,7 @@
         <v>602</v>
       </c>
       <c r="I172">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J172" t="s">
         <v>433</v>
@@ -11071,7 +11071,7 @@
         <v>603</v>
       </c>
       <c r="I173">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J173" t="s">
         <v>433</v>
@@ -11097,7 +11097,7 @@
         <v>604</v>
       </c>
       <c r="I174">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J174" t="s">
         <v>433</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="I175">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J175" t="s">
         <v>433</v>
@@ -11149,7 +11149,7 @@
         <v>606</v>
       </c>
       <c r="I176">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J176" t="s">
         <v>433</v>
@@ -11175,7 +11175,7 @@
         <v>607</v>
       </c>
       <c r="I177">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J177" t="s">
         <v>433</v>
@@ -11201,7 +11201,7 @@
         <v>608</v>
       </c>
       <c r="I178">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J178" t="s">
         <v>433</v>
@@ -11227,7 +11227,7 @@
         <v>609</v>
       </c>
       <c r="I179">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J179" t="s">
         <v>433</v>
@@ -11253,7 +11253,7 @@
         <v>610</v>
       </c>
       <c r="I180">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J180" t="s">
         <v>433</v>
@@ -11279,7 +11279,7 @@
         <v>611</v>
       </c>
       <c r="I181">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J181" t="s">
         <v>433</v>
@@ -11305,7 +11305,7 @@
         <v>612</v>
       </c>
       <c r="I182">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J182" t="s">
         <v>433</v>
@@ -11331,7 +11331,7 @@
         <v>613</v>
       </c>
       <c r="I183">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J183" t="s">
         <v>433</v>
@@ -11357,7 +11357,7 @@
         <v>614</v>
       </c>
       <c r="I184">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J184" t="s">
         <v>433</v>
@@ -11383,7 +11383,7 @@
         <v>615</v>
       </c>
       <c r="I185">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J185" t="s">
         <v>433</v>
@@ -11409,7 +11409,7 @@
         <v>616</v>
       </c>
       <c r="I186">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J186" t="s">
         <v>433</v>
@@ -11435,7 +11435,7 @@
         <v>617</v>
       </c>
       <c r="I187">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J187" t="s">
         <v>433</v>
@@ -11461,7 +11461,7 @@
         <v>618</v>
       </c>
       <c r="I188">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4268000000000002E-2</v>
       </c>
       <c r="J188" t="s">
         <v>433</v>
@@ -11487,7 +11487,7 @@
         <v>619</v>
       </c>
       <c r="I189">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3590000000000001E-3</v>
       </c>
       <c r="J189" t="s">
         <v>433</v>
@@ -11513,7 +11513,7 @@
         <v>620</v>
       </c>
       <c r="I190">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J190" t="s">
         <v>433</v>
@@ -11539,7 +11539,7 @@
         <v>621</v>
       </c>
       <c r="I191">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J191" t="s">
         <v>433</v>
@@ -11565,7 +11565,7 @@
         <v>622</v>
       </c>
       <c r="I192">
-        <v>3.5340000000000003E-2</v>
+        <v>3.3065999999999998E-2</v>
       </c>
       <c r="J192" t="s">
         <v>433</v>
@@ -11591,7 +11591,7 @@
         <v>623</v>
       </c>
       <c r="I193">
-        <v>7.0680000000000005E-3</v>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="J193" t="s">
         <v>433</v>
@@ -11617,7 +11617,7 @@
         <v>624</v>
       </c>
       <c r="I194">
-        <v>7.0680000000000005E-3</v>
+        <v>7.0959999999999999E-3</v>
       </c>
       <c r="J194" t="s">
         <v>433</v>
@@ -11643,7 +11643,7 @@
         <v>625</v>
       </c>
       <c r="I195">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4859000000000003E-2</v>
       </c>
       <c r="J195" t="s">
         <v>433</v>
@@ -11669,7 +11669,7 @@
         <v>626</v>
       </c>
       <c r="I196">
-        <v>4.3092000000000005E-2</v>
+        <v>4.1707000000000001E-2</v>
       </c>
       <c r="J196" t="s">
         <v>433</v>
@@ -11695,7 +11695,7 @@
         <v>627</v>
       </c>
       <c r="I197">
-        <v>6.156E-3</v>
+        <v>5.8349999999999999E-3</v>
       </c>
       <c r="J197" t="s">
         <v>433</v>
@@ -11721,7 +11721,7 @@
         <v>628</v>
       </c>
       <c r="I198">
-        <v>6.156E-3</v>
+        <v>5.8100000000000001E-3</v>
       </c>
       <c r="J198" t="s">
         <v>433</v>
@@ -11747,7 +11747,7 @@
         <v>629</v>
       </c>
       <c r="I199">
-        <v>6.156E-3</v>
+        <v>5.8529999999999997E-3</v>
       </c>
       <c r="J199" t="s">
         <v>433</v>
@@ -11773,7 +11773,7 @@
         <v>630</v>
       </c>
       <c r="I200">
-        <v>3.0780000000000002E-2</v>
+        <v>3.2418999999999996E-2</v>
       </c>
       <c r="J200" t="s">
         <v>433</v>
@@ -11799,7 +11799,7 @@
         <v>631</v>
       </c>
       <c r="I201">
-        <v>6.156E-3</v>
+        <v>6.9620000000000003E-3</v>
       </c>
       <c r="J201" t="s">
         <v>433</v>
@@ -11825,7 +11825,7 @@
         <v>632</v>
       </c>
       <c r="I202">
-        <v>6.156E-3</v>
+        <v>7.365E-3</v>
       </c>
       <c r="J202" t="s">
         <v>433</v>
@@ -11851,7 +11851,7 @@
         <v>633</v>
       </c>
       <c r="I203">
-        <v>4.3092000000000005E-2</v>
+        <v>4.2716999999999998E-2</v>
       </c>
       <c r="J203" t="s">
         <v>433</v>
@@ -11877,7 +11877,7 @@
         <v>634</v>
       </c>
       <c r="I204">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J204" t="s">
         <v>433</v>
@@ -11903,7 +11903,7 @@
         <v>635</v>
       </c>
       <c r="I205">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J205" t="s">
         <v>433</v>
@@ -11929,7 +11929,7 @@
         <v>636</v>
       </c>
       <c r="I206">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J206" t="s">
         <v>433</v>
@@ -11955,7 +11955,7 @@
         <v>637</v>
       </c>
       <c r="I207">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J207" t="s">
         <v>433</v>
@@ -11981,7 +11981,7 @@
         <v>638</v>
       </c>
       <c r="I208">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J208" t="s">
         <v>433</v>
@@ -12007,7 +12007,7 @@
         <v>639</v>
       </c>
       <c r="I209">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J209" t="s">
         <v>433</v>
@@ -12033,7 +12033,7 @@
         <v>640</v>
       </c>
       <c r="I210">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J210" t="s">
         <v>433</v>
@@ -12059,7 +12059,7 @@
         <v>641</v>
       </c>
       <c r="I211">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J211" t="s">
         <v>433</v>
@@ -12085,7 +12085,7 @@
         <v>642</v>
       </c>
       <c r="I212">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J212" t="s">
         <v>433</v>
@@ -12111,7 +12111,7 @@
         <v>643</v>
       </c>
       <c r="I213">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J213" t="s">
         <v>433</v>
@@ -12137,7 +12137,7 @@
         <v>644</v>
       </c>
       <c r="I214">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J214" t="s">
         <v>433</v>
@@ -12163,7 +12163,7 @@
         <v>645</v>
       </c>
       <c r="I215">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J215" t="s">
         <v>433</v>
@@ -12189,7 +12189,7 @@
         <v>646</v>
       </c>
       <c r="I216">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J216" t="s">
         <v>433</v>
@@ -12215,7 +12215,7 @@
         <v>647</v>
       </c>
       <c r="I217">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J217" t="s">
         <v>433</v>
@@ -12241,7 +12241,7 @@
         <v>648</v>
       </c>
       <c r="I218">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J218" t="s">
         <v>433</v>
@@ -12267,7 +12267,7 @@
         <v>649</v>
       </c>
       <c r="I219">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J219" t="s">
         <v>433</v>
@@ -12293,7 +12293,7 @@
         <v>650</v>
       </c>
       <c r="I220">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J220" t="s">
         <v>433</v>
@@ -12319,7 +12319,7 @@
         <v>651</v>
       </c>
       <c r="I221">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J221" t="s">
         <v>433</v>
@@ -12345,7 +12345,7 @@
         <v>652</v>
       </c>
       <c r="I222">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J222" t="s">
         <v>433</v>
@@ -12371,7 +12371,7 @@
         <v>653</v>
       </c>
       <c r="I223">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J223" t="s">
         <v>433</v>
@@ -12397,7 +12397,7 @@
         <v>654</v>
       </c>
       <c r="I224">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J224" t="s">
         <v>433</v>
@@ -12423,7 +12423,7 @@
         <v>655</v>
       </c>
       <c r="I225">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J225" t="s">
         <v>433</v>
@@ -12449,7 +12449,7 @@
         <v>656</v>
       </c>
       <c r="I226">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J226" t="s">
         <v>433</v>
@@ -12475,7 +12475,7 @@
         <v>657</v>
       </c>
       <c r="I227">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J227" t="s">
         <v>433</v>
@@ -12501,7 +12501,7 @@
         <v>658</v>
       </c>
       <c r="I228">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J228" t="s">
         <v>433</v>
@@ -12527,7 +12527,7 @@
         <v>659</v>
       </c>
       <c r="I229">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J229" t="s">
         <v>433</v>
@@ -12553,7 +12553,7 @@
         <v>660</v>
       </c>
       <c r="I230">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J230" t="s">
         <v>433</v>
@@ -12579,7 +12579,7 @@
         <v>661</v>
       </c>
       <c r="I231">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J231" t="s">
         <v>433</v>
@@ -12605,7 +12605,7 @@
         <v>662</v>
       </c>
       <c r="I232">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J232" t="s">
         <v>433</v>
@@ -12631,7 +12631,7 @@
         <v>663</v>
       </c>
       <c r="I233">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J233" t="s">
         <v>433</v>
@@ -12657,7 +12657,7 @@
         <v>664</v>
       </c>
       <c r="I234">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J234" t="s">
         <v>433</v>
@@ -12683,7 +12683,7 @@
         <v>665</v>
       </c>
       <c r="I235">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J235" t="s">
         <v>433</v>
@@ -12709,7 +12709,7 @@
         <v>666</v>
       </c>
       <c r="I236">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J236" t="s">
         <v>433</v>
@@ -12735,7 +12735,7 @@
         <v>667</v>
       </c>
       <c r="I237">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J237" t="s">
         <v>433</v>
@@ -12761,7 +12761,7 @@
         <v>668</v>
       </c>
       <c r="I238">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J238" t="s">
         <v>433</v>
@@ -12787,7 +12787,7 @@
         <v>669</v>
       </c>
       <c r="I239">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J239" t="s">
         <v>433</v>
@@ -12813,7 +12813,7 @@
         <v>670</v>
       </c>
       <c r="I240">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J240" t="s">
         <v>433</v>
@@ -12839,7 +12839,7 @@
         <v>671</v>
       </c>
       <c r="I241">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J241" t="s">
         <v>433</v>
@@ -12865,7 +12865,7 @@
         <v>672</v>
       </c>
       <c r="I242">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J242" t="s">
         <v>433</v>
@@ -12891,7 +12891,7 @@
         <v>673</v>
       </c>
       <c r="I243">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J243" t="s">
         <v>433</v>
@@ -12917,7 +12917,7 @@
         <v>674</v>
       </c>
       <c r="I244">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J244" t="s">
         <v>433</v>
@@ -12943,7 +12943,7 @@
         <v>675</v>
       </c>
       <c r="I245">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J245" t="s">
         <v>433</v>
@@ -12969,7 +12969,7 @@
         <v>676</v>
       </c>
       <c r="I246">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J246" t="s">
         <v>433</v>
@@ -12995,7 +12995,7 @@
         <v>677</v>
       </c>
       <c r="I247">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J247" t="s">
         <v>433</v>
@@ -13021,7 +13021,7 @@
         <v>678</v>
       </c>
       <c r="I248">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J248" t="s">
         <v>433</v>
@@ -13047,7 +13047,7 @@
         <v>679</v>
       </c>
       <c r="I249">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J249" t="s">
         <v>433</v>
@@ -13073,7 +13073,7 @@
         <v>680</v>
       </c>
       <c r="I250">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J250" t="s">
         <v>433</v>
@@ -13099,7 +13099,7 @@
         <v>681</v>
       </c>
       <c r="I251">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J251" t="s">
         <v>433</v>
@@ -13125,7 +13125,7 @@
         <v>682</v>
       </c>
       <c r="I252">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J252" t="s">
         <v>433</v>
@@ -13151,7 +13151,7 @@
         <v>683</v>
       </c>
       <c r="I253">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J253" t="s">
         <v>433</v>
@@ -13177,7 +13177,7 @@
         <v>684</v>
       </c>
       <c r="I254">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J254" t="s">
         <v>433</v>
@@ -13203,7 +13203,7 @@
         <v>685</v>
       </c>
       <c r="I255">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J255" t="s">
         <v>433</v>
@@ -13229,7 +13229,7 @@
         <v>686</v>
       </c>
       <c r="I256">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J256" t="s">
         <v>433</v>
@@ -13255,7 +13255,7 @@
         <v>687</v>
       </c>
       <c r="I257">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J257" t="s">
         <v>433</v>
@@ -13281,7 +13281,7 @@
         <v>688</v>
       </c>
       <c r="I258">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J258" t="s">
         <v>433</v>
@@ -13307,7 +13307,7 @@
         <v>689</v>
       </c>
       <c r="I259">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J259" t="s">
         <v>433</v>
@@ -13333,7 +13333,7 @@
         <v>690</v>
       </c>
       <c r="I260">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J260" t="s">
         <v>433</v>
@@ -13359,7 +13359,7 @@
         <v>691</v>
       </c>
       <c r="I261">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J261" t="s">
         <v>433</v>
@@ -13385,7 +13385,7 @@
         <v>692</v>
       </c>
       <c r="I262">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J262" t="s">
         <v>433</v>
@@ -13411,7 +13411,7 @@
         <v>693</v>
       </c>
       <c r="I263">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J263" t="s">
         <v>433</v>
@@ -13437,7 +13437,7 @@
         <v>694</v>
       </c>
       <c r="I264">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J264" t="s">
         <v>433</v>
@@ -13463,7 +13463,7 @@
         <v>695</v>
       </c>
       <c r="I265">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J265" t="s">
         <v>433</v>
@@ -13489,7 +13489,7 @@
         <v>696</v>
       </c>
       <c r="I266">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J266" t="s">
         <v>433</v>
@@ -13515,7 +13515,7 @@
         <v>697</v>
       </c>
       <c r="I267">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J267" t="s">
         <v>433</v>
@@ -13541,7 +13541,7 @@
         <v>698</v>
       </c>
       <c r="I268">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J268" t="s">
         <v>433</v>
@@ -13567,7 +13567,7 @@
         <v>699</v>
       </c>
       <c r="I269">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J269" t="s">
         <v>433</v>
@@ -13593,7 +13593,7 @@
         <v>700</v>
       </c>
       <c r="I270">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J270" t="s">
         <v>433</v>
@@ -13619,7 +13619,7 @@
         <v>701</v>
       </c>
       <c r="I271">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J271" t="s">
         <v>433</v>
@@ -13645,7 +13645,7 @@
         <v>702</v>
       </c>
       <c r="I272">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J272" t="s">
         <v>433</v>
@@ -13671,7 +13671,7 @@
         <v>703</v>
       </c>
       <c r="I273">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J273" t="s">
         <v>433</v>
@@ -13697,7 +13697,7 @@
         <v>704</v>
       </c>
       <c r="I274">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J274" t="s">
         <v>433</v>
@@ -13723,7 +13723,7 @@
         <v>705</v>
       </c>
       <c r="I275">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J275" t="s">
         <v>433</v>
@@ -13749,7 +13749,7 @@
         <v>706</v>
       </c>
       <c r="I276">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J276" t="s">
         <v>433</v>
@@ -13775,7 +13775,7 @@
         <v>707</v>
       </c>
       <c r="I277">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J277" t="s">
         <v>433</v>
@@ -13801,7 +13801,7 @@
         <v>708</v>
       </c>
       <c r="I278">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J278" t="s">
         <v>433</v>
@@ -13827,7 +13827,7 @@
         <v>709</v>
       </c>
       <c r="I279">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J279" t="s">
         <v>433</v>
@@ -13853,7 +13853,7 @@
         <v>710</v>
       </c>
       <c r="I280">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J280" t="s">
         <v>433</v>
@@ -13879,7 +13879,7 @@
         <v>711</v>
       </c>
       <c r="I281">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J281" t="s">
         <v>433</v>
@@ -13905,7 +13905,7 @@
         <v>712</v>
       </c>
       <c r="I282">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J282" t="s">
         <v>433</v>
@@ -13931,7 +13931,7 @@
         <v>713</v>
       </c>
       <c r="I283">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J283" t="s">
         <v>433</v>
@@ -13957,7 +13957,7 @@
         <v>714</v>
       </c>
       <c r="I284">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J284" t="s">
         <v>433</v>
@@ -13983,7 +13983,7 @@
         <v>715</v>
       </c>
       <c r="I285">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J285" t="s">
         <v>433</v>
@@ -14009,7 +14009,7 @@
         <v>716</v>
       </c>
       <c r="I286">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J286" t="s">
         <v>433</v>
@@ -14035,7 +14035,7 @@
         <v>717</v>
       </c>
       <c r="I287">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J287" t="s">
         <v>433</v>
@@ -14061,7 +14061,7 @@
         <v>718</v>
       </c>
       <c r="I288">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J288" t="s">
         <v>433</v>
@@ -14087,7 +14087,7 @@
         <v>719</v>
       </c>
       <c r="I289">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J289" t="s">
         <v>433</v>
@@ -14113,7 +14113,7 @@
         <v>720</v>
       </c>
       <c r="I290">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J290" t="s">
         <v>433</v>
@@ -14139,7 +14139,7 @@
         <v>721</v>
       </c>
       <c r="I291">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J291" t="s">
         <v>433</v>
@@ -14165,7 +14165,7 @@
         <v>722</v>
       </c>
       <c r="I292">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J292" t="s">
         <v>433</v>
@@ -14191,7 +14191,7 @@
         <v>723</v>
       </c>
       <c r="I293">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J293" t="s">
         <v>433</v>
@@ -14217,7 +14217,7 @@
         <v>724</v>
       </c>
       <c r="I294">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J294" t="s">
         <v>433</v>
@@ -14243,7 +14243,7 @@
         <v>725</v>
       </c>
       <c r="I295">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J295" t="s">
         <v>433</v>
@@ -14269,7 +14269,7 @@
         <v>726</v>
       </c>
       <c r="I296">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J296" t="s">
         <v>433</v>
@@ -14295,7 +14295,7 @@
         <v>727</v>
       </c>
       <c r="I297">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J297" t="s">
         <v>433</v>
@@ -14321,7 +14321,7 @@
         <v>728</v>
       </c>
       <c r="I298">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J298" t="s">
         <v>433</v>
@@ -14347,7 +14347,7 @@
         <v>729</v>
       </c>
       <c r="I299">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J299" t="s">
         <v>433</v>
@@ -14373,7 +14373,7 @@
         <v>730</v>
       </c>
       <c r="I300">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J300" t="s">
         <v>433</v>
@@ -14399,7 +14399,7 @@
         <v>731</v>
       </c>
       <c r="I301">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J301" t="s">
         <v>433</v>
@@ -14425,7 +14425,7 @@
         <v>732</v>
       </c>
       <c r="I302">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J302" t="s">
         <v>433</v>
@@ -14451,7 +14451,7 @@
         <v>733</v>
       </c>
       <c r="I303">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J303" t="s">
         <v>433</v>
@@ -14477,7 +14477,7 @@
         <v>734</v>
       </c>
       <c r="I304">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J304" t="s">
         <v>433</v>
@@ -14503,7 +14503,7 @@
         <v>735</v>
       </c>
       <c r="I305">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J305" t="s">
         <v>433</v>
@@ -14529,7 +14529,7 @@
         <v>736</v>
       </c>
       <c r="I306">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J306" t="s">
         <v>433</v>
@@ -14555,7 +14555,7 @@
         <v>737</v>
       </c>
       <c r="I307">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J307" t="s">
         <v>433</v>
@@ -14581,7 +14581,7 @@
         <v>738</v>
       </c>
       <c r="I308">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J308" t="s">
         <v>433</v>
@@ -14607,7 +14607,7 @@
         <v>739</v>
       </c>
       <c r="I309">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J309" t="s">
         <v>433</v>
@@ -14633,7 +14633,7 @@
         <v>740</v>
       </c>
       <c r="I310">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J310" t="s">
         <v>433</v>
@@ -14659,7 +14659,7 @@
         <v>741</v>
       </c>
       <c r="I311">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J311" t="s">
         <v>433</v>
@@ -14685,7 +14685,7 @@
         <v>742</v>
       </c>
       <c r="I312">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J312" t="s">
         <v>433</v>
@@ -14711,7 +14711,7 @@
         <v>743</v>
       </c>
       <c r="I313">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J313" t="s">
         <v>433</v>
@@ -14737,7 +14737,7 @@
         <v>744</v>
       </c>
       <c r="I314">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J314" t="s">
         <v>433</v>
@@ -14763,7 +14763,7 @@
         <v>745</v>
       </c>
       <c r="I315">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J315" t="s">
         <v>433</v>
@@ -14789,7 +14789,7 @@
         <v>746</v>
       </c>
       <c r="I316">
-        <v>1.1400000000000001E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="J316" t="s">
         <v>433</v>
@@ -14815,7 +14815,7 @@
         <v>747</v>
       </c>
       <c r="I317">
-        <v>1.1400000000000001E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="J317" t="s">
         <v>433</v>
@@ -14841,7 +14841,7 @@
         <v>748</v>
       </c>
       <c r="I318">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J318" t="s">
         <v>433</v>
@@ -14867,7 +14867,7 @@
         <v>749</v>
       </c>
       <c r="I319">
-        <v>1.1400000000000001E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="J319" t="s">
         <v>433</v>
@@ -14893,7 +14893,7 @@
         <v>750</v>
       </c>
       <c r="I320">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J320" t="s">
         <v>433</v>
@@ -14919,7 +14919,7 @@
         <v>751</v>
       </c>
       <c r="I321">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J321" t="s">
         <v>433</v>
@@ -14945,7 +14945,7 @@
         <v>752</v>
       </c>
       <c r="I322">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J322" t="s">
         <v>433</v>
@@ -14971,7 +14971,7 @@
         <v>753</v>
       </c>
       <c r="I323">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J323" t="s">
         <v>433</v>
@@ -14997,7 +14997,7 @@
         <v>754</v>
       </c>
       <c r="I324">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J324" t="s">
         <v>433</v>
@@ -15023,7 +15023,7 @@
         <v>755</v>
       </c>
       <c r="I325">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J325" t="s">
         <v>433</v>
@@ -15049,7 +15049,7 @@
         <v>756</v>
       </c>
       <c r="I326">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J326" t="s">
         <v>433</v>
@@ -15075,7 +15075,7 @@
         <v>757</v>
       </c>
       <c r="I327">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J327" t="s">
         <v>433</v>
@@ -15101,7 +15101,7 @@
         <v>758</v>
       </c>
       <c r="I328">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J328" t="s">
         <v>433</v>
@@ -15127,7 +15127,7 @@
         <v>759</v>
       </c>
       <c r="I329">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J329" t="s">
         <v>433</v>
@@ -15153,7 +15153,7 @@
         <v>760</v>
       </c>
       <c r="I330">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J330" t="s">
         <v>433</v>
@@ -15179,7 +15179,7 @@
         <v>761</v>
       </c>
       <c r="I331">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J331" t="s">
         <v>433</v>
@@ -15205,7 +15205,7 @@
         <v>762</v>
       </c>
       <c r="I332">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J332" t="s">
         <v>433</v>
@@ -15231,7 +15231,7 @@
         <v>763</v>
       </c>
       <c r="I333">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J333" t="s">
         <v>433</v>
@@ -15257,7 +15257,7 @@
         <v>764</v>
       </c>
       <c r="I334">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J334" t="s">
         <v>433</v>
@@ -15283,7 +15283,7 @@
         <v>765</v>
       </c>
       <c r="I335">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J335" t="s">
         <v>433</v>
@@ -15309,7 +15309,7 @@
         <v>766</v>
       </c>
       <c r="I336">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J336" t="s">
         <v>433</v>
@@ -15335,7 +15335,7 @@
         <v>767</v>
       </c>
       <c r="I337">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J337" t="s">
         <v>433</v>
@@ -15361,7 +15361,7 @@
         <v>768</v>
       </c>
       <c r="I338">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J338" t="s">
         <v>433</v>
@@ -15387,7 +15387,7 @@
         <v>769</v>
       </c>
       <c r="I339">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J339" t="s">
         <v>433</v>
@@ -15413,7 +15413,7 @@
         <v>770</v>
       </c>
       <c r="I340">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J340" t="s">
         <v>433</v>
@@ -15439,7 +15439,7 @@
         <v>771</v>
       </c>
       <c r="I341">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J341" t="s">
         <v>433</v>
@@ -15465,7 +15465,7 @@
         <v>772</v>
       </c>
       <c r="I342">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J342" t="s">
         <v>433</v>
@@ -15491,7 +15491,7 @@
         <v>773</v>
       </c>
       <c r="I343">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J343" t="s">
         <v>433</v>
@@ -15517,7 +15517,7 @@
         <v>774</v>
       </c>
       <c r="I344">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J344" t="s">
         <v>433</v>
@@ -15543,7 +15543,7 @@
         <v>775</v>
       </c>
       <c r="I345">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J345" t="s">
         <v>433</v>
@@ -15569,7 +15569,7 @@
         <v>776</v>
       </c>
       <c r="I346">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J346" t="s">
         <v>433</v>
@@ -15595,7 +15595,7 @@
         <v>777</v>
       </c>
       <c r="I347">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J347" t="s">
         <v>433</v>
@@ -15621,7 +15621,7 @@
         <v>778</v>
       </c>
       <c r="I348">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J348" t="s">
         <v>433</v>
@@ -15647,7 +15647,7 @@
         <v>779</v>
       </c>
       <c r="I349">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J349" t="s">
         <v>433</v>
@@ -15673,7 +15673,7 @@
         <v>780</v>
       </c>
       <c r="I350">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J350" t="s">
         <v>433</v>
@@ -15699,7 +15699,7 @@
         <v>781</v>
       </c>
       <c r="I351">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J351" t="s">
         <v>433</v>
@@ -15725,7 +15725,7 @@
         <v>782</v>
       </c>
       <c r="I352">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J352" t="s">
         <v>433</v>
@@ -15751,7 +15751,7 @@
         <v>783</v>
       </c>
       <c r="I353">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J353" t="s">
         <v>433</v>
@@ -15777,7 +15777,7 @@
         <v>784</v>
       </c>
       <c r="I354">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J354" t="s">
         <v>433</v>
@@ -15803,7 +15803,7 @@
         <v>785</v>
       </c>
       <c r="I355">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J355" t="s">
         <v>433</v>
@@ -15829,7 +15829,7 @@
         <v>786</v>
       </c>
       <c r="I356">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J356" t="s">
         <v>433</v>
@@ -15855,7 +15855,7 @@
         <v>787</v>
       </c>
       <c r="I357">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J357" t="s">
         <v>433</v>
@@ -15881,7 +15881,7 @@
         <v>788</v>
       </c>
       <c r="I358">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J358" t="s">
         <v>433</v>
@@ -15907,7 +15907,7 @@
         <v>789</v>
       </c>
       <c r="I359">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J359" t="s">
         <v>433</v>
@@ -15933,7 +15933,7 @@
         <v>790</v>
       </c>
       <c r="I360">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J360" t="s">
         <v>433</v>
@@ -15959,7 +15959,7 @@
         <v>791</v>
       </c>
       <c r="I361">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J361" t="s">
         <v>433</v>
@@ -15985,7 +15985,7 @@
         <v>792</v>
       </c>
       <c r="I362">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J362" t="s">
         <v>433</v>
@@ -16011,7 +16011,7 @@
         <v>793</v>
       </c>
       <c r="I363">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J363" t="s">
         <v>433</v>
@@ -16037,7 +16037,7 @@
         <v>794</v>
       </c>
       <c r="I364">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J364" t="s">
         <v>433</v>
@@ -16063,7 +16063,7 @@
         <v>795</v>
       </c>
       <c r="I365">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J365" t="s">
         <v>433</v>
@@ -16089,7 +16089,7 @@
         <v>796</v>
       </c>
       <c r="I366">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J366" t="s">
         <v>433</v>
@@ -16115,7 +16115,7 @@
         <v>797</v>
       </c>
       <c r="I367">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J367" t="s">
         <v>433</v>
@@ -16141,7 +16141,7 @@
         <v>798</v>
       </c>
       <c r="I368">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J368" t="s">
         <v>433</v>
@@ -16167,7 +16167,7 @@
         <v>799</v>
       </c>
       <c r="I369">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J369" t="s">
         <v>433</v>
@@ -16193,7 +16193,7 @@
         <v>800</v>
       </c>
       <c r="I370">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J370" t="s">
         <v>433</v>
@@ -16219,7 +16219,7 @@
         <v>801</v>
       </c>
       <c r="I371">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J371" t="s">
         <v>433</v>
@@ -16245,7 +16245,7 @@
         <v>802</v>
       </c>
       <c r="I372">
-        <v>2.3940000000000003E-2</v>
+        <v>2.3289000000000001E-2</v>
       </c>
       <c r="J372" t="s">
         <v>433</v>
@@ -16271,7 +16271,7 @@
         <v>803</v>
       </c>
       <c r="I373">
-        <v>3.4200000000000003E-3</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="J373" t="s">
         <v>433</v>
@@ -16297,7 +16297,7 @@
         <v>804</v>
       </c>
       <c r="I374">
-        <v>3.4200000000000003E-3</v>
+        <v>3.2520000000000001E-3</v>
       </c>
       <c r="J374" t="s">
         <v>433</v>
@@ -16323,7 +16323,7 @@
         <v>805</v>
       </c>
       <c r="I375">
-        <v>3.4200000000000003E-3</v>
+        <v>3.5239999999999998E-3</v>
       </c>
       <c r="J375" t="s">
         <v>433</v>
@@ -16349,7 +16349,7 @@
         <v>806</v>
       </c>
       <c r="I376">
-        <v>1.7193E-2</v>
+        <v>2.8257999999999998E-2</v>
       </c>
       <c r="J376" t="s">
         <v>433</v>
@@ -16375,7 +16375,7 @@
         <v>807</v>
       </c>
       <c r="I377">
-        <v>3.4200000000000003E-3</v>
+        <v>5.0020000000000004E-3</v>
       </c>
       <c r="J377" t="s">
         <v>433</v>
@@ -16401,7 +16401,7 @@
         <v>808</v>
       </c>
       <c r="I378">
-        <v>3.4200000000000003E-3</v>
+        <v>4.6099999999999995E-3</v>
       </c>
       <c r="J378" t="s">
         <v>433</v>
@@ -16427,7 +16427,7 @@
         <v>809</v>
       </c>
       <c r="I379">
-        <v>2.3940000000000003E-2</v>
+        <v>2.3761999999999998E-2</v>
       </c>
       <c r="J379" t="s">
         <v>433</v>
@@ -16453,7 +16453,7 @@
         <v>810</v>
       </c>
       <c r="I380">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2414E-2</v>
       </c>
       <c r="J380" t="s">
         <v>433</v>
@@ -16479,7 +16479,7 @@
         <v>811</v>
       </c>
       <c r="I381">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J381" t="s">
         <v>433</v>
@@ -16505,7 +16505,7 @@
         <v>812</v>
       </c>
       <c r="I382">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J382" t="s">
         <v>433</v>
@@ -16531,7 +16531,7 @@
         <v>813</v>
       </c>
       <c r="I383">
-        <v>3.5340000000000002E-3</v>
+        <v>3.1619999999999999E-3</v>
       </c>
       <c r="J383" t="s">
         <v>433</v>
@@ -16557,7 +16557,7 @@
         <v>814</v>
       </c>
       <c r="I384">
-        <v>1.7670000000000002E-2</v>
+        <v>1.5896E-2</v>
       </c>
       <c r="J384" t="s">
         <v>433</v>
@@ -16583,7 +16583,7 @@
         <v>815</v>
       </c>
       <c r="I385">
-        <v>3.5340000000000002E-3</v>
+        <v>3.3119999999999998E-3</v>
       </c>
       <c r="J385" t="s">
         <v>433</v>
@@ -16609,7 +16609,7 @@
         <v>816</v>
       </c>
       <c r="I386">
-        <v>3.5340000000000002E-3</v>
+        <v>3.2209999999999999E-3</v>
       </c>
       <c r="J386" t="s">
         <v>433</v>
@@ -16635,7 +16635,7 @@
         <v>817</v>
       </c>
       <c r="I387">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2197999999999999E-2</v>
       </c>
       <c r="J387" t="s">
         <v>433</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF332F-0E70-4D91-9B4F-DC335139015F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A3545-2554-4C2F-8B89-535FE1CAF642}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FB680-24C4-4339-8632-3134D8085589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E346B74-A76A-4CCB-8300-427989A8482C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17</t>
-  </si>
-  <si>
-    <t>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20</t>
+    <t>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</t>
+  </si>
+  <si>
+    <t>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20</v>
+        <v>S2b0424h19,S2b0426h21,S2b0427h03,S2b0428h04,S4c1002h02,S4c1003h06,S4c1004h06,S4c1007h19,S2aH8,S2b0424h05,S2b0424h20,S2b0424h22,S2b0425h06,S2b0425h23,S4c1001h23,S4c1002h04,S4c1003h21,S4c1004h20,S2b0423h21,S2b0427h02,S2b0427h06,S2b0429h03,S2b0429h20,S4aH1,S4c1003h20,S4c1004h21,S4c1006h19,S4c1007h06,S6aH1,S2b0423h22,S2b0426h05,S2b0429h23,S4aH8,S4c1001h19,S4c1004h04,S4c1005h05,S4c1006h23,S4c1007h21,S4c1007h24,S2b0424h06,S2b0425h01,S2b0425h05,S2b0425h21,S2b0428h02,S2b0428h20,S4c1003h02,S4c1004h23,S4c1006h21,S1aH1,S2b0425h03,S2b0426h23,S2b0427h05,S2b0427h21,S2b0427h22,S4c1001h02,S4c1001h05,S4c1001h06,S4c1004h02,S4c1005h22,S2b0423h20,S2b0424h23,S2b0425h04,S2b0426h04,S2b0427h04,S2b0427h23,S4c1003h05,S4c1003h23,S4c1004h05,S4c1005h20,S4c1005h23,S4c1006h05,S4c1006h06,S4c1006h20,S4c1007h03,S4c1007h20,S2b0423h04,S2b0424h21,S2b0428h06,S2b0429h02,S3aH8,S4c1001h01,S4c1001h03,S4c1002h22,S2b0424h01,S2b0426h22,S2b0427h19,S2b0429h01,S4c1001h04,S4c1001h20,S4c1002h01,S4c1005h04,S2b0423h06,S2b0424h02,S2b0424h24,S2b0426h03,S2b0428h22,S2b0429h04,S2b0429h05,S3aH1,S4c1003h03,S4c1005h21,S4c1006h03,S4c1006h22,S2b0426h02,S2b0428h03,S2b0428h23,S2b0428h24,S4c1002h05,S4c1003h24,S4c1007h22,S2aH1,S2b0423h02,S2b0423h05,S2b0426h01,S2b0426h06,S2b0426h19,S2b0427h01,S2b0429h06,S2b0429h19,S2b0429h22,S4c1004h22,S4c1005h19,S4c1007h02,S5aH8,S2b0423h23,S2b0424h03,S2b0426h20,S2b0427h20,S2b0428h05,S2b0429h21,S4c1002h19,S4c1002h20,S4c1003h04,S4c1005h02,S4c1005h24,S1aH8,S2b0423h03,S2b0423h19,S2b0423h24,S2b0425h02,S2b0425h24,S2b0426h24,S2b0427h24,S2b0428h01,S2b0428h19,S2b0428h21,S4c1001h22,S4c1002h03,S4c1003h19,S4c1007h01,S4c1007h05,S5aH1,S2b0423h01,S2b0424h04,S2b0425h20,S2b0425h22,S4c1002h06,S4c1002h24,S4c1003h01,S4c1004h03,S4c1004h19,S4c1004h24,S4c1006h01,S4c1006h04,S4c1007h04,S2b0425h19,S2b0429h24,S4c1001h21,S4c1001h24,S4c1002h21,S4c1002h23,S4c1003h22,S4c1004h01,S4c1005h01,S4c1005h03,S4c1005h06,S4c1006h02,S4c1006h24,S4c1007h23,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17</v>
+        <v>S1aH3,S2b0424h15,S2b0425h16,S2b0426h07,S2b0427h07,S2b0428h12,S2b0429h10,S4c1004h12,S4c1004h13,S4c1006h07,S2b0423h14,S2b0424h14,S2b0427h16,S2b0427h18,S2b0429h12,S3aH7,S4c1002h07,S4c1002h08,S4c1004h09,S4c1006h17,S4c1007h12,S1aH4,S2aH2,S2b0426h15,S2b0427h15,S2b0428h15,S4aH6,S4c1001h13,S4c1002h17,S4c1003h15,S4c1004h18,S2b0424h12,S2b0425h09,S2b0425h15,S2b0426h08,S2b0426h13,S2b0426h18,S2b0427h08,S2b0427h14,S2b0429h15,S2b0429h18,S4c1001h09,S4c1003h09,S4c1005h13,S4c1005h15,S4c1006h16,S4c1007h07,S4c1007h17,S6aH5,S2b0423h08,S2b0423h13,S2b0425h10,S2b0428h08,S2b0428h17,S3aH3,S4c1001h18,S4c1005h07,S4c1005h17,S2b0423h10,S2b0424h07,S2b0425h14,S2b0428h09,S4c1001h12,S4c1003h11,S4c1006h12,S4c1006h13,S4c1007h08,S4c1007h16,S2aH7,S2b0423h09,S2b0424h13,S2b0428h14,S3aH4,S4aH3,S4aH4,S4c1003h17,S2b0425h11,S2b0425h12,S2b0427h17,S3aH2,S4c1002h09,S4c1006h15,S4c1007h15,S2b0423h18,S2b0424h11,S2b0424h18,S2b0429h07,S4c1004h07,S5aH4,S6aH3,S6aH4,S2b0423h07,S2b0426h09,S2b0426h12,S2b0429h08,S4c1002h10,S4c1002h14,S4c1003h08,S4c1003h12,S4c1004h08,S4c1005h11,S6aH7,S2b0423h11,S2b0424h09,S2b0427h09,S2b0427h10,S2b0428h13,S2b0428h18,S4aH5,S4c1001h17,S4c1002h16,S4c1004h11,S4c1005h14,S4c1007h13,S4c1007h14,S2b0423h12,S2b0423h15,S2b0424h17,S2b0426h14,S2b0428h16,S2b0429h16,S4aH2,S4c1001h07,S4c1002h11,S4c1002h15,S4c1002h18,S4c1003h18,S4c1005h12,S4c1006h10,S4c1006h18,S4c1007h18,S1aH5,S2aH4,S2aH5,S2b0425h13,S2b0426h11,S2b0426h16,S2b0426h17,S2b0429h17,S4c1001h15,S4c1003h07,S4c1003h14,S4c1004h15,S4c1005h08,S4c1006h08,S4c1006h14,S4c1007h09,S4c1007h10,S5aH2,S5aH5,S6aH2,S2aH6,S2b0424h10,S2b0425h07,S2b0425h08,S2b0425h18,S2b0427h11,S2b0428h10,S2b0429h11,S2b0429h14,S3aH5,S4c1001h14,S4c1002h13,S4c1003h10,S4c1003h16,S4c1004h10,S4c1004h16,S4c1005h10,S4c1005h18,S4c1006h09,S4c1006h11,S5aH3,S1aH2,S1aH7,S2aH3,S2b0423h16,S2b0423h17,S2b0424h08,S2b0424h16,S2b0425h17,S2b0426h10,S2b0427h12,S2b0428h11,S3aH6,S4aH7,S4c1001h11,S4c1001h16,S4c1004h14,S4c1005h16,S4c1007h11,S5aH6,S5aH7,S6aH6,S1aH6,S2b0427h13,S2b0428h07,S2b0429h09,S2b0429h13,S4c1001h08,S4c1001h10,S4c1002h12,S4c1003h13,S4c1004h17,S4c1005h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615D7B40-1A00-47A1-A8B3-2D5A6ADAF991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E6FFC-99B2-4029-B335-B3E416486B15}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1DE277-4FC5-4B59-8AC0-8FCCA1E6CC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588AD6E9-2568-4F59-8190-42942D77BDB0}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6623,7 +6623,7 @@
         <v>432</v>
       </c>
       <c r="I4">
-        <v>4.4613E-2</v>
+        <v>2.1951000000000002E-2</v>
       </c>
       <c r="J4" t="s">
         <v>433</v>
@@ -6658,7 +6658,7 @@
         <v>435</v>
       </c>
       <c r="I5">
-        <v>6.3049999999999998E-3</v>
+        <v>2.2910000000000001E-3</v>
       </c>
       <c r="J5" t="s">
         <v>433</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>8.0605632899210883E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6693,7 +6693,7 @@
         <v>436</v>
       </c>
       <c r="I6">
-        <v>6.4920000000000004E-3</v>
+        <v>4.4320000000000002E-3</v>
       </c>
       <c r="J6" t="s">
         <v>433</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.26179508564829657</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6728,7 +6728,7 @@
         <v>437</v>
       </c>
       <c r="I7">
-        <v>6.901E-3</v>
+        <v>9.3600000000000003E-3</v>
       </c>
       <c r="J7" t="s">
         <v>433</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>7.9527811637903387E-2</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6763,7 +6763,7 @@
         <v>438</v>
       </c>
       <c r="I8">
-        <v>3.7770999999999999E-2</v>
+        <v>8.5995000000000002E-2</v>
       </c>
       <c r="J8" t="s">
         <v>433</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825429</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6798,7 +6798,7 @@
         <v>439</v>
       </c>
       <c r="I9">
-        <v>8.1300000000000001E-3</v>
+        <v>2.2488000000000001E-2</v>
       </c>
       <c r="J9" t="s">
         <v>433</v>
@@ -6833,7 +6833,7 @@
         <v>440</v>
       </c>
       <c r="I10">
-        <v>7.927E-3</v>
+        <v>1.9276999999999999E-2</v>
       </c>
       <c r="J10" t="s">
         <v>433</v>
@@ -6859,7 +6859,7 @@
         <v>441</v>
       </c>
       <c r="I11">
-        <v>5.0334999999999998E-2</v>
+        <v>8.3212000000000008E-2</v>
       </c>
       <c r="J11" t="s">
         <v>433</v>
@@ -6885,7 +6885,7 @@
         <v>442</v>
       </c>
       <c r="I12">
-        <v>8.3912E-2</v>
+        <v>1.5901000000000002E-2</v>
       </c>
       <c r="J12" t="s">
         <v>433</v>
@@ -6911,7 +6911,7 @@
         <v>443</v>
       </c>
       <c r="I13">
-        <v>1.184E-2</v>
+        <v>8.4099999999999995E-4</v>
       </c>
       <c r="J13" t="s">
         <v>433</v>
@@ -6937,7 +6937,7 @@
         <v>444</v>
       </c>
       <c r="I14">
-        <v>1.1813000000000001E-2</v>
+        <v>6.29E-4</v>
       </c>
       <c r="J14" t="s">
         <v>433</v>
@@ -6963,7 +6963,7 @@
         <v>445</v>
       </c>
       <c r="I15">
-        <v>1.2109E-2</v>
+        <v>3.0110000000000002E-3</v>
       </c>
       <c r="J15" t="s">
         <v>433</v>
@@ -6989,7 +6989,7 @@
         <v>446</v>
       </c>
       <c r="I16">
-        <v>7.1895000000000001E-2</v>
+        <v>0.134217</v>
       </c>
       <c r="J16" t="s">
         <v>433</v>
@@ -7015,7 +7015,7 @@
         <v>447</v>
       </c>
       <c r="I17">
-        <v>1.6522999999999999E-2</v>
+        <v>5.2396999999999999E-2</v>
       </c>
       <c r="J17" t="s">
         <v>433</v>
@@ -7041,7 +7041,7 @@
         <v>448</v>
       </c>
       <c r="I18">
-        <v>1.5982E-2</v>
+        <v>4.3763999999999997E-2</v>
       </c>
       <c r="J18" t="s">
         <v>433</v>
@@ -7067,7 +7067,7 @@
         <v>449</v>
       </c>
       <c r="I19">
-        <v>8.8926000000000005E-2</v>
+        <v>6.5379999999999994E-2</v>
       </c>
       <c r="J19" t="s">
         <v>433</v>
@@ -7093,7 +7093,7 @@
         <v>450</v>
       </c>
       <c r="I20">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>433</v>
@@ -7119,7 +7119,7 @@
         <v>451</v>
       </c>
       <c r="I21">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>433</v>
@@ -7145,7 +7145,7 @@
         <v>452</v>
       </c>
       <c r="I22">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>433</v>
@@ -7171,7 +7171,7 @@
         <v>453</v>
       </c>
       <c r="I23">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>433</v>
@@ -7197,7 +7197,7 @@
         <v>454</v>
       </c>
       <c r="I24">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>433</v>
@@ -7223,7 +7223,7 @@
         <v>455</v>
       </c>
       <c r="I25">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>433</v>
@@ -7249,7 +7249,7 @@
         <v>456</v>
       </c>
       <c r="I26">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>433</v>
@@ -7275,7 +7275,7 @@
         <v>457</v>
       </c>
       <c r="I27">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>433</v>
@@ -7301,7 +7301,7 @@
         <v>458</v>
       </c>
       <c r="I28">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>433</v>
@@ -7327,7 +7327,7 @@
         <v>459</v>
       </c>
       <c r="I29">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>433</v>
@@ -7353,7 +7353,7 @@
         <v>460</v>
       </c>
       <c r="I30">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>433</v>
@@ -7379,7 +7379,7 @@
         <v>461</v>
       </c>
       <c r="I31">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>433</v>
@@ -7405,7 +7405,7 @@
         <v>462</v>
       </c>
       <c r="I32">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>433</v>
@@ -7431,7 +7431,7 @@
         <v>463</v>
       </c>
       <c r="I33">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>433</v>
@@ -7457,7 +7457,7 @@
         <v>464</v>
       </c>
       <c r="I34">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>433</v>
@@ -7483,7 +7483,7 @@
         <v>465</v>
       </c>
       <c r="I35">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>433</v>
@@ -7509,7 +7509,7 @@
         <v>466</v>
       </c>
       <c r="I36">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>433</v>
@@ -7535,7 +7535,7 @@
         <v>467</v>
       </c>
       <c r="I37">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>433</v>
@@ -7561,7 +7561,7 @@
         <v>468</v>
       </c>
       <c r="I38">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>433</v>
@@ -7587,7 +7587,7 @@
         <v>469</v>
       </c>
       <c r="I39">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>433</v>
@@ -7613,7 +7613,7 @@
         <v>470</v>
       </c>
       <c r="I40">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>433</v>
@@ -7639,7 +7639,7 @@
         <v>471</v>
       </c>
       <c r="I41">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>433</v>
@@ -7665,7 +7665,7 @@
         <v>472</v>
       </c>
       <c r="I42">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>433</v>
@@ -7691,7 +7691,7 @@
         <v>473</v>
       </c>
       <c r="I43">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>433</v>
@@ -7717,7 +7717,7 @@
         <v>474</v>
       </c>
       <c r="I44">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>433</v>
@@ -7743,7 +7743,7 @@
         <v>475</v>
       </c>
       <c r="I45">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>433</v>
@@ -7769,7 +7769,7 @@
         <v>476</v>
       </c>
       <c r="I46">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>433</v>
@@ -7795,7 +7795,7 @@
         <v>477</v>
       </c>
       <c r="I47">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>433</v>
@@ -7821,7 +7821,7 @@
         <v>478</v>
       </c>
       <c r="I48">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>433</v>
@@ -7847,7 +7847,7 @@
         <v>479</v>
       </c>
       <c r="I49">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>433</v>
@@ -7873,7 +7873,7 @@
         <v>480</v>
       </c>
       <c r="I50">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>433</v>
@@ -7899,7 +7899,7 @@
         <v>481</v>
       </c>
       <c r="I51">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>433</v>
@@ -7925,7 +7925,7 @@
         <v>482</v>
       </c>
       <c r="I52">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>433</v>
@@ -7951,7 +7951,7 @@
         <v>483</v>
       </c>
       <c r="I53">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>433</v>
@@ -7977,7 +7977,7 @@
         <v>484</v>
       </c>
       <c r="I54">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>433</v>
@@ -8003,7 +8003,7 @@
         <v>485</v>
       </c>
       <c r="I55">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>433</v>
@@ -8029,7 +8029,7 @@
         <v>486</v>
       </c>
       <c r="I56">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>433</v>
@@ -8055,7 +8055,7 @@
         <v>487</v>
       </c>
       <c r="I57">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>433</v>
@@ -8081,7 +8081,7 @@
         <v>488</v>
       </c>
       <c r="I58">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>433</v>
@@ -8107,7 +8107,7 @@
         <v>489</v>
       </c>
       <c r="I59">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>433</v>
@@ -8133,7 +8133,7 @@
         <v>490</v>
       </c>
       <c r="I60">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>433</v>
@@ -8159,7 +8159,7 @@
         <v>491</v>
       </c>
       <c r="I61">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>433</v>
@@ -8185,7 +8185,7 @@
         <v>492</v>
       </c>
       <c r="I62">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>433</v>
@@ -8211,7 +8211,7 @@
         <v>493</v>
       </c>
       <c r="I63">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>433</v>
@@ -8237,7 +8237,7 @@
         <v>494</v>
       </c>
       <c r="I64">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>433</v>
@@ -8263,7 +8263,7 @@
         <v>495</v>
       </c>
       <c r="I65">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>433</v>
@@ -8289,7 +8289,7 @@
         <v>496</v>
       </c>
       <c r="I66">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>433</v>
@@ -8315,7 +8315,7 @@
         <v>497</v>
       </c>
       <c r="I67">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>433</v>
@@ -8341,7 +8341,7 @@
         <v>498</v>
       </c>
       <c r="I68">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>433</v>
@@ -8367,7 +8367,7 @@
         <v>499</v>
       </c>
       <c r="I69">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>433</v>
@@ -8393,7 +8393,7 @@
         <v>500</v>
       </c>
       <c r="I70">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>433</v>
@@ -8419,7 +8419,7 @@
         <v>501</v>
       </c>
       <c r="I71">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>433</v>
@@ -8445,7 +8445,7 @@
         <v>502</v>
       </c>
       <c r="I72">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>433</v>
@@ -8471,7 +8471,7 @@
         <v>503</v>
       </c>
       <c r="I73">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>433</v>
@@ -8497,7 +8497,7 @@
         <v>504</v>
       </c>
       <c r="I74">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>433</v>
@@ -8523,7 +8523,7 @@
         <v>505</v>
       </c>
       <c r="I75">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>433</v>
@@ -8549,7 +8549,7 @@
         <v>506</v>
       </c>
       <c r="I76">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>433</v>
@@ -8575,7 +8575,7 @@
         <v>507</v>
       </c>
       <c r="I77">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>433</v>
@@ -8601,7 +8601,7 @@
         <v>508</v>
       </c>
       <c r="I78">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>433</v>
@@ -8627,7 +8627,7 @@
         <v>509</v>
       </c>
       <c r="I79">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>433</v>
@@ -8653,7 +8653,7 @@
         <v>510</v>
       </c>
       <c r="I80">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>433</v>
@@ -8679,7 +8679,7 @@
         <v>511</v>
       </c>
       <c r="I81">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>433</v>
@@ -8705,7 +8705,7 @@
         <v>512</v>
       </c>
       <c r="I82">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>433</v>
@@ -8731,7 +8731,7 @@
         <v>513</v>
       </c>
       <c r="I83">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>433</v>
@@ -8757,7 +8757,7 @@
         <v>514</v>
       </c>
       <c r="I84">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>433</v>
@@ -8783,7 +8783,7 @@
         <v>515</v>
       </c>
       <c r="I85">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>433</v>
@@ -8809,7 +8809,7 @@
         <v>516</v>
       </c>
       <c r="I86">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>433</v>
@@ -8835,7 +8835,7 @@
         <v>517</v>
       </c>
       <c r="I87">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>433</v>
@@ -8861,7 +8861,7 @@
         <v>518</v>
       </c>
       <c r="I88">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>433</v>
@@ -8887,7 +8887,7 @@
         <v>519</v>
       </c>
       <c r="I89">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>433</v>
@@ -8913,7 +8913,7 @@
         <v>520</v>
       </c>
       <c r="I90">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>433</v>
@@ -8939,7 +8939,7 @@
         <v>521</v>
       </c>
       <c r="I91">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>433</v>
@@ -8965,7 +8965,7 @@
         <v>522</v>
       </c>
       <c r="I92">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>433</v>
@@ -8991,7 +8991,7 @@
         <v>523</v>
       </c>
       <c r="I93">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>433</v>
@@ -9017,7 +9017,7 @@
         <v>524</v>
       </c>
       <c r="I94">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>433</v>
@@ -9043,7 +9043,7 @@
         <v>525</v>
       </c>
       <c r="I95">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>433</v>
@@ -9069,7 +9069,7 @@
         <v>526</v>
       </c>
       <c r="I96">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>433</v>
@@ -9095,7 +9095,7 @@
         <v>527</v>
       </c>
       <c r="I97">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>433</v>
@@ -9121,7 +9121,7 @@
         <v>528</v>
       </c>
       <c r="I98">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>433</v>
@@ -9147,7 +9147,7 @@
         <v>529</v>
       </c>
       <c r="I99">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>433</v>
@@ -9173,7 +9173,7 @@
         <v>530</v>
       </c>
       <c r="I100">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>433</v>
@@ -9199,7 +9199,7 @@
         <v>531</v>
       </c>
       <c r="I101">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>433</v>
@@ -9225,7 +9225,7 @@
         <v>532</v>
       </c>
       <c r="I102">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>433</v>
@@ -9251,7 +9251,7 @@
         <v>533</v>
       </c>
       <c r="I103">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>433</v>
@@ -9277,7 +9277,7 @@
         <v>534</v>
       </c>
       <c r="I104">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>433</v>
@@ -9303,7 +9303,7 @@
         <v>535</v>
       </c>
       <c r="I105">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>433</v>
@@ -9329,7 +9329,7 @@
         <v>536</v>
       </c>
       <c r="I106">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>433</v>
@@ -9355,7 +9355,7 @@
         <v>537</v>
       </c>
       <c r="I107">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>433</v>
@@ -9381,7 +9381,7 @@
         <v>538</v>
       </c>
       <c r="I108">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>433</v>
@@ -9407,7 +9407,7 @@
         <v>539</v>
       </c>
       <c r="I109">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>433</v>
@@ -9433,7 +9433,7 @@
         <v>540</v>
       </c>
       <c r="I110">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>433</v>
@@ -9459,7 +9459,7 @@
         <v>541</v>
       </c>
       <c r="I111">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>433</v>
@@ -9485,7 +9485,7 @@
         <v>542</v>
       </c>
       <c r="I112">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>433</v>
@@ -9511,7 +9511,7 @@
         <v>543</v>
       </c>
       <c r="I113">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>433</v>
@@ -9537,7 +9537,7 @@
         <v>544</v>
       </c>
       <c r="I114">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>433</v>
@@ -9563,7 +9563,7 @@
         <v>545</v>
       </c>
       <c r="I115">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>433</v>
@@ -9589,7 +9589,7 @@
         <v>546</v>
       </c>
       <c r="I116">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>433</v>
@@ -9615,7 +9615,7 @@
         <v>547</v>
       </c>
       <c r="I117">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>433</v>
@@ -9641,7 +9641,7 @@
         <v>548</v>
       </c>
       <c r="I118">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>433</v>
@@ -9667,7 +9667,7 @@
         <v>549</v>
       </c>
       <c r="I119">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>433</v>
@@ -9693,7 +9693,7 @@
         <v>550</v>
       </c>
       <c r="I120">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>433</v>
@@ -9719,7 +9719,7 @@
         <v>551</v>
       </c>
       <c r="I121">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>433</v>
@@ -9745,7 +9745,7 @@
         <v>552</v>
       </c>
       <c r="I122">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>433</v>
@@ -9771,7 +9771,7 @@
         <v>553</v>
       </c>
       <c r="I123">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>433</v>
@@ -9797,7 +9797,7 @@
         <v>554</v>
       </c>
       <c r="I124">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>433</v>
@@ -9823,7 +9823,7 @@
         <v>555</v>
       </c>
       <c r="I125">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>433</v>
@@ -9849,7 +9849,7 @@
         <v>556</v>
       </c>
       <c r="I126">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>433</v>
@@ -9875,7 +9875,7 @@
         <v>557</v>
       </c>
       <c r="I127">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>433</v>
@@ -9901,7 +9901,7 @@
         <v>558</v>
       </c>
       <c r="I128">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>433</v>
@@ -9927,7 +9927,7 @@
         <v>559</v>
       </c>
       <c r="I129">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>433</v>
@@ -9953,7 +9953,7 @@
         <v>560</v>
       </c>
       <c r="I130">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J130" t="s">
         <v>433</v>
@@ -9979,7 +9979,7 @@
         <v>561</v>
       </c>
       <c r="I131">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J131" t="s">
         <v>433</v>
@@ -10005,7 +10005,7 @@
         <v>562</v>
       </c>
       <c r="I132">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J132" t="s">
         <v>433</v>
@@ -10031,7 +10031,7 @@
         <v>563</v>
       </c>
       <c r="I133">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J133" t="s">
         <v>433</v>
@@ -10057,7 +10057,7 @@
         <v>564</v>
       </c>
       <c r="I134">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>433</v>
@@ -10083,7 +10083,7 @@
         <v>565</v>
       </c>
       <c r="I135">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>433</v>
@@ -10109,7 +10109,7 @@
         <v>566</v>
       </c>
       <c r="I136">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>433</v>
@@ -10135,7 +10135,7 @@
         <v>567</v>
       </c>
       <c r="I137">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>433</v>
@@ -10161,7 +10161,7 @@
         <v>568</v>
       </c>
       <c r="I138">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>433</v>
@@ -10187,7 +10187,7 @@
         <v>569</v>
       </c>
       <c r="I139">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>433</v>
@@ -10213,7 +10213,7 @@
         <v>570</v>
       </c>
       <c r="I140">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>433</v>
@@ -10239,7 +10239,7 @@
         <v>571</v>
       </c>
       <c r="I141">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>433</v>
@@ -10265,7 +10265,7 @@
         <v>572</v>
       </c>
       <c r="I142">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>433</v>
@@ -10291,7 +10291,7 @@
         <v>573</v>
       </c>
       <c r="I143">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>433</v>
@@ -10317,7 +10317,7 @@
         <v>574</v>
       </c>
       <c r="I144">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>433</v>
@@ -10343,7 +10343,7 @@
         <v>575</v>
       </c>
       <c r="I145">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>433</v>
@@ -10369,7 +10369,7 @@
         <v>576</v>
       </c>
       <c r="I146">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>433</v>
@@ -10395,7 +10395,7 @@
         <v>577</v>
       </c>
       <c r="I147">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>433</v>
@@ -10421,7 +10421,7 @@
         <v>578</v>
       </c>
       <c r="I148">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>433</v>
@@ -10447,7 +10447,7 @@
         <v>579</v>
       </c>
       <c r="I149">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>433</v>
@@ -10473,7 +10473,7 @@
         <v>580</v>
       </c>
       <c r="I150">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>433</v>
@@ -10499,7 +10499,7 @@
         <v>581</v>
       </c>
       <c r="I151">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>433</v>
@@ -10525,7 +10525,7 @@
         <v>582</v>
       </c>
       <c r="I152">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>433</v>
@@ -10551,7 +10551,7 @@
         <v>583</v>
       </c>
       <c r="I153">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>433</v>
@@ -10577,7 +10577,7 @@
         <v>584</v>
       </c>
       <c r="I154">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>433</v>
@@ -10603,7 +10603,7 @@
         <v>585</v>
       </c>
       <c r="I155">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>433</v>
@@ -10629,7 +10629,7 @@
         <v>586</v>
       </c>
       <c r="I156">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>433</v>
@@ -10655,7 +10655,7 @@
         <v>587</v>
       </c>
       <c r="I157">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>433</v>
@@ -10681,7 +10681,7 @@
         <v>588</v>
       </c>
       <c r="I158">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>433</v>
@@ -10707,7 +10707,7 @@
         <v>589</v>
       </c>
       <c r="I159">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>433</v>
@@ -10733,7 +10733,7 @@
         <v>590</v>
       </c>
       <c r="I160">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>433</v>
@@ -10759,7 +10759,7 @@
         <v>591</v>
       </c>
       <c r="I161">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>433</v>
@@ -10785,7 +10785,7 @@
         <v>592</v>
       </c>
       <c r="I162">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>433</v>
@@ -10811,7 +10811,7 @@
         <v>593</v>
       </c>
       <c r="I163">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>433</v>
@@ -10837,7 +10837,7 @@
         <v>594</v>
       </c>
       <c r="I164">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>433</v>
@@ -10863,7 +10863,7 @@
         <v>595</v>
       </c>
       <c r="I165">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>433</v>
@@ -10889,7 +10889,7 @@
         <v>596</v>
       </c>
       <c r="I166">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>433</v>
@@ -10915,7 +10915,7 @@
         <v>597</v>
       </c>
       <c r="I167">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>433</v>
@@ -10941,7 +10941,7 @@
         <v>598</v>
       </c>
       <c r="I168">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>433</v>
@@ -10967,7 +10967,7 @@
         <v>599</v>
       </c>
       <c r="I169">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
         <v>433</v>
@@ -10993,7 +10993,7 @@
         <v>600</v>
       </c>
       <c r="I170">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>433</v>
@@ -11019,7 +11019,7 @@
         <v>601</v>
       </c>
       <c r="I171">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>433</v>
@@ -11045,7 +11045,7 @@
         <v>602</v>
       </c>
       <c r="I172">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>433</v>
@@ -11071,7 +11071,7 @@
         <v>603</v>
       </c>
       <c r="I173">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>433</v>
@@ -11097,7 +11097,7 @@
         <v>604</v>
       </c>
       <c r="I174">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>433</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="I175">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>433</v>
@@ -11149,7 +11149,7 @@
         <v>606</v>
       </c>
       <c r="I176">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>433</v>
@@ -11175,7 +11175,7 @@
         <v>607</v>
       </c>
       <c r="I177">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>433</v>
@@ -11201,7 +11201,7 @@
         <v>608</v>
       </c>
       <c r="I178">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>433</v>
@@ -11227,7 +11227,7 @@
         <v>609</v>
       </c>
       <c r="I179">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>433</v>
@@ -11253,7 +11253,7 @@
         <v>610</v>
       </c>
       <c r="I180">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>433</v>
@@ -11279,7 +11279,7 @@
         <v>611</v>
       </c>
       <c r="I181">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>433</v>
@@ -11305,7 +11305,7 @@
         <v>612</v>
       </c>
       <c r="I182">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>433</v>
@@ -11331,7 +11331,7 @@
         <v>613</v>
       </c>
       <c r="I183">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>433</v>
@@ -11357,7 +11357,7 @@
         <v>614</v>
       </c>
       <c r="I184">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>433</v>
@@ -11383,7 +11383,7 @@
         <v>615</v>
       </c>
       <c r="I185">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>433</v>
@@ -11409,7 +11409,7 @@
         <v>616</v>
       </c>
       <c r="I186">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>433</v>
@@ -11435,7 +11435,7 @@
         <v>617</v>
       </c>
       <c r="I187">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>433</v>
@@ -11461,7 +11461,7 @@
         <v>618</v>
       </c>
       <c r="I188">
-        <v>4.4268000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>433</v>
@@ -11487,7 +11487,7 @@
         <v>619</v>
       </c>
       <c r="I189">
-        <v>6.3590000000000001E-3</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J189" t="s">
         <v>433</v>
@@ -11513,7 +11513,7 @@
         <v>620</v>
       </c>
       <c r="I190">
-        <v>6.3239999999999998E-3</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J190" t="s">
         <v>433</v>
@@ -11539,7 +11539,7 @@
         <v>621</v>
       </c>
       <c r="I191">
-        <v>6.3239999999999998E-3</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J191" t="s">
         <v>433</v>
@@ -11565,7 +11565,7 @@
         <v>622</v>
       </c>
       <c r="I192">
-        <v>3.3065999999999998E-2</v>
+        <v>1.1649E-2</v>
       </c>
       <c r="J192" t="s">
         <v>433</v>
@@ -11591,7 +11591,7 @@
         <v>623</v>
       </c>
       <c r="I193">
-        <v>7.2199999999999999E-3</v>
+        <v>8.3150000000000012E-3</v>
       </c>
       <c r="J193" t="s">
         <v>433</v>
@@ -11617,7 +11617,7 @@
         <v>624</v>
       </c>
       <c r="I194">
-        <v>7.0959999999999999E-3</v>
+        <v>6.5980000000000006E-3</v>
       </c>
       <c r="J194" t="s">
         <v>433</v>
@@ -11643,7 +11643,7 @@
         <v>625</v>
       </c>
       <c r="I195">
-        <v>4.4859000000000003E-2</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="J195" t="s">
         <v>433</v>
@@ -11669,7 +11669,7 @@
         <v>626</v>
       </c>
       <c r="I196">
-        <v>4.1707000000000001E-2</v>
+        <v>3.5157000000000001E-2</v>
       </c>
       <c r="J196" t="s">
         <v>433</v>
@@ -11695,7 +11695,7 @@
         <v>627</v>
       </c>
       <c r="I197">
-        <v>5.8349999999999999E-3</v>
+        <v>3.5119999999999999E-3</v>
       </c>
       <c r="J197" t="s">
         <v>433</v>
@@ -11721,7 +11721,7 @@
         <v>628</v>
       </c>
       <c r="I198">
-        <v>5.8100000000000001E-3</v>
+        <v>3.2130000000000001E-3</v>
       </c>
       <c r="J198" t="s">
         <v>433</v>
@@ -11747,7 +11747,7 @@
         <v>629</v>
       </c>
       <c r="I199">
-        <v>5.8529999999999997E-3</v>
+        <v>3.7560000000000002E-3</v>
       </c>
       <c r="J199" t="s">
         <v>433</v>
@@ -11773,7 +11773,7 @@
         <v>630</v>
       </c>
       <c r="I200">
-        <v>3.2418999999999996E-2</v>
+        <v>5.0270000000000002E-2</v>
       </c>
       <c r="J200" t="s">
         <v>433</v>
@@ -11799,7 +11799,7 @@
         <v>631</v>
       </c>
       <c r="I201">
-        <v>6.9620000000000003E-3</v>
+        <v>1.4692E-2</v>
       </c>
       <c r="J201" t="s">
         <v>433</v>
@@ -11825,7 +11825,7 @@
         <v>632</v>
       </c>
       <c r="I202">
-        <v>7.365E-3</v>
+        <v>2.0208E-2</v>
       </c>
       <c r="J202" t="s">
         <v>433</v>
@@ -11851,7 +11851,7 @@
         <v>633</v>
       </c>
       <c r="I203">
-        <v>4.2716999999999998E-2</v>
+        <v>3.9217000000000002E-2</v>
       </c>
       <c r="J203" t="s">
         <v>433</v>
@@ -11877,7 +11877,7 @@
         <v>634</v>
       </c>
       <c r="I204">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>433</v>
@@ -11903,7 +11903,7 @@
         <v>635</v>
       </c>
       <c r="I205">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>433</v>
@@ -11929,7 +11929,7 @@
         <v>636</v>
       </c>
       <c r="I206">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>433</v>
@@ -11955,7 +11955,7 @@
         <v>637</v>
       </c>
       <c r="I207">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>433</v>
@@ -11981,7 +11981,7 @@
         <v>638</v>
       </c>
       <c r="I208">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>433</v>
@@ -12007,7 +12007,7 @@
         <v>639</v>
       </c>
       <c r="I209">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>433</v>
@@ -12033,7 +12033,7 @@
         <v>640</v>
       </c>
       <c r="I210">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>433</v>
@@ -12059,7 +12059,7 @@
         <v>641</v>
       </c>
       <c r="I211">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>433</v>
@@ -12085,7 +12085,7 @@
         <v>642</v>
       </c>
       <c r="I212">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>433</v>
@@ -12111,7 +12111,7 @@
         <v>643</v>
       </c>
       <c r="I213">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>433</v>
@@ -12137,7 +12137,7 @@
         <v>644</v>
       </c>
       <c r="I214">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>433</v>
@@ -12163,7 +12163,7 @@
         <v>645</v>
       </c>
       <c r="I215">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>433</v>
@@ -12189,7 +12189,7 @@
         <v>646</v>
       </c>
       <c r="I216">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>433</v>
@@ -12215,7 +12215,7 @@
         <v>647</v>
       </c>
       <c r="I217">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>433</v>
@@ -12241,7 +12241,7 @@
         <v>648</v>
       </c>
       <c r="I218">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>433</v>
@@ -12267,7 +12267,7 @@
         <v>649</v>
       </c>
       <c r="I219">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>433</v>
@@ -12293,7 +12293,7 @@
         <v>650</v>
       </c>
       <c r="I220">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>433</v>
@@ -12319,7 +12319,7 @@
         <v>651</v>
       </c>
       <c r="I221">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>433</v>
@@ -12345,7 +12345,7 @@
         <v>652</v>
       </c>
       <c r="I222">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>433</v>
@@ -12371,7 +12371,7 @@
         <v>653</v>
       </c>
       <c r="I223">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>433</v>
@@ -12397,7 +12397,7 @@
         <v>654</v>
       </c>
       <c r="I224">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>433</v>
@@ -12423,7 +12423,7 @@
         <v>655</v>
       </c>
       <c r="I225">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>433</v>
@@ -12449,7 +12449,7 @@
         <v>656</v>
       </c>
       <c r="I226">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>433</v>
@@ -12475,7 +12475,7 @@
         <v>657</v>
       </c>
       <c r="I227">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>433</v>
@@ -12501,7 +12501,7 @@
         <v>658</v>
       </c>
       <c r="I228">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>433</v>
@@ -12527,7 +12527,7 @@
         <v>659</v>
       </c>
       <c r="I229">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>433</v>
@@ -12553,7 +12553,7 @@
         <v>660</v>
       </c>
       <c r="I230">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>433</v>
@@ -12579,7 +12579,7 @@
         <v>661</v>
       </c>
       <c r="I231">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>433</v>
@@ -12605,7 +12605,7 @@
         <v>662</v>
       </c>
       <c r="I232">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>433</v>
@@ -12631,7 +12631,7 @@
         <v>663</v>
       </c>
       <c r="I233">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>433</v>
@@ -12657,7 +12657,7 @@
         <v>664</v>
       </c>
       <c r="I234">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>433</v>
@@ -12683,7 +12683,7 @@
         <v>665</v>
       </c>
       <c r="I235">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>433</v>
@@ -12709,7 +12709,7 @@
         <v>666</v>
       </c>
       <c r="I236">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>433</v>
@@ -12735,7 +12735,7 @@
         <v>667</v>
       </c>
       <c r="I237">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>433</v>
@@ -12761,7 +12761,7 @@
         <v>668</v>
       </c>
       <c r="I238">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>433</v>
@@ -12787,7 +12787,7 @@
         <v>669</v>
       </c>
       <c r="I239">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
         <v>433</v>
@@ -12813,7 +12813,7 @@
         <v>670</v>
       </c>
       <c r="I240">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>433</v>
@@ -12839,7 +12839,7 @@
         <v>671</v>
       </c>
       <c r="I241">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>433</v>
@@ -12865,7 +12865,7 @@
         <v>672</v>
       </c>
       <c r="I242">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>433</v>
@@ -12891,7 +12891,7 @@
         <v>673</v>
       </c>
       <c r="I243">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>433</v>
@@ -12917,7 +12917,7 @@
         <v>674</v>
       </c>
       <c r="I244">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>433</v>
@@ -12943,7 +12943,7 @@
         <v>675</v>
       </c>
       <c r="I245">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>433</v>
@@ -12969,7 +12969,7 @@
         <v>676</v>
       </c>
       <c r="I246">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>433</v>
@@ -12995,7 +12995,7 @@
         <v>677</v>
       </c>
       <c r="I247">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>433</v>
@@ -13021,7 +13021,7 @@
         <v>678</v>
       </c>
       <c r="I248">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>433</v>
@@ -13047,7 +13047,7 @@
         <v>679</v>
       </c>
       <c r="I249">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
         <v>433</v>
@@ -13073,7 +13073,7 @@
         <v>680</v>
       </c>
       <c r="I250">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
         <v>433</v>
@@ -13099,7 +13099,7 @@
         <v>681</v>
       </c>
       <c r="I251">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
         <v>433</v>
@@ -13125,7 +13125,7 @@
         <v>682</v>
       </c>
       <c r="I252">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>433</v>
@@ -13151,7 +13151,7 @@
         <v>683</v>
       </c>
       <c r="I253">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>433</v>
@@ -13177,7 +13177,7 @@
         <v>684</v>
       </c>
       <c r="I254">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>433</v>
@@ -13203,7 +13203,7 @@
         <v>685</v>
       </c>
       <c r="I255">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>433</v>
@@ -13229,7 +13229,7 @@
         <v>686</v>
       </c>
       <c r="I256">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>433</v>
@@ -13255,7 +13255,7 @@
         <v>687</v>
       </c>
       <c r="I257">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
         <v>433</v>
@@ -13281,7 +13281,7 @@
         <v>688</v>
       </c>
       <c r="I258">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
         <v>433</v>
@@ -13307,7 +13307,7 @@
         <v>689</v>
       </c>
       <c r="I259">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
         <v>433</v>
@@ -13333,7 +13333,7 @@
         <v>690</v>
       </c>
       <c r="I260">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
         <v>433</v>
@@ -13359,7 +13359,7 @@
         <v>691</v>
       </c>
       <c r="I261">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
         <v>433</v>
@@ -13385,7 +13385,7 @@
         <v>692</v>
       </c>
       <c r="I262">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>433</v>
@@ -13411,7 +13411,7 @@
         <v>693</v>
       </c>
       <c r="I263">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>433</v>
@@ -13437,7 +13437,7 @@
         <v>694</v>
       </c>
       <c r="I264">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>433</v>
@@ -13463,7 +13463,7 @@
         <v>695</v>
       </c>
       <c r="I265">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>433</v>
@@ -13489,7 +13489,7 @@
         <v>696</v>
       </c>
       <c r="I266">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
         <v>433</v>
@@ -13515,7 +13515,7 @@
         <v>697</v>
       </c>
       <c r="I267">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>433</v>
@@ -13541,7 +13541,7 @@
         <v>698</v>
       </c>
       <c r="I268">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>433</v>
@@ -13567,7 +13567,7 @@
         <v>699</v>
       </c>
       <c r="I269">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>433</v>
@@ -13593,7 +13593,7 @@
         <v>700</v>
       </c>
       <c r="I270">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
         <v>433</v>
@@ -13619,7 +13619,7 @@
         <v>701</v>
       </c>
       <c r="I271">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J271" t="s">
         <v>433</v>
@@ -13645,7 +13645,7 @@
         <v>702</v>
       </c>
       <c r="I272">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
         <v>433</v>
@@ -13671,7 +13671,7 @@
         <v>703</v>
       </c>
       <c r="I273">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
         <v>433</v>
@@ -13697,7 +13697,7 @@
         <v>704</v>
       </c>
       <c r="I274">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
         <v>433</v>
@@ -13723,7 +13723,7 @@
         <v>705</v>
       </c>
       <c r="I275">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
         <v>433</v>
@@ -13749,7 +13749,7 @@
         <v>706</v>
       </c>
       <c r="I276">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>433</v>
@@ -13775,7 +13775,7 @@
         <v>707</v>
       </c>
       <c r="I277">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
         <v>433</v>
@@ -13801,7 +13801,7 @@
         <v>708</v>
       </c>
       <c r="I278">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
         <v>433</v>
@@ -13827,7 +13827,7 @@
         <v>709</v>
       </c>
       <c r="I279">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
         <v>433</v>
@@ -13853,7 +13853,7 @@
         <v>710</v>
       </c>
       <c r="I280">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
         <v>433</v>
@@ -13879,7 +13879,7 @@
         <v>711</v>
       </c>
       <c r="I281">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
         <v>433</v>
@@ -13905,7 +13905,7 @@
         <v>712</v>
       </c>
       <c r="I282">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
         <v>433</v>
@@ -13931,7 +13931,7 @@
         <v>713</v>
       </c>
       <c r="I283">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
         <v>433</v>
@@ -13957,7 +13957,7 @@
         <v>714</v>
       </c>
       <c r="I284">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
         <v>433</v>
@@ -13983,7 +13983,7 @@
         <v>715</v>
       </c>
       <c r="I285">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>433</v>
@@ -14009,7 +14009,7 @@
         <v>716</v>
       </c>
       <c r="I286">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>433</v>
@@ -14035,7 +14035,7 @@
         <v>717</v>
       </c>
       <c r="I287">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>433</v>
@@ -14061,7 +14061,7 @@
         <v>718</v>
       </c>
       <c r="I288">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
         <v>433</v>
@@ -14087,7 +14087,7 @@
         <v>719</v>
       </c>
       <c r="I289">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
         <v>433</v>
@@ -14113,7 +14113,7 @@
         <v>720</v>
       </c>
       <c r="I290">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J290" t="s">
         <v>433</v>
@@ -14139,7 +14139,7 @@
         <v>721</v>
       </c>
       <c r="I291">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>433</v>
@@ -14165,7 +14165,7 @@
         <v>722</v>
       </c>
       <c r="I292">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
         <v>433</v>
@@ -14191,7 +14191,7 @@
         <v>723</v>
       </c>
       <c r="I293">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
         <v>433</v>
@@ -14217,7 +14217,7 @@
         <v>724</v>
       </c>
       <c r="I294">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>433</v>
@@ -14243,7 +14243,7 @@
         <v>725</v>
       </c>
       <c r="I295">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
         <v>433</v>
@@ -14269,7 +14269,7 @@
         <v>726</v>
       </c>
       <c r="I296">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
         <v>433</v>
@@ -14295,7 +14295,7 @@
         <v>727</v>
       </c>
       <c r="I297">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
         <v>433</v>
@@ -14321,7 +14321,7 @@
         <v>728</v>
       </c>
       <c r="I298">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
         <v>433</v>
@@ -14347,7 +14347,7 @@
         <v>729</v>
       </c>
       <c r="I299">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
         <v>433</v>
@@ -14373,7 +14373,7 @@
         <v>730</v>
       </c>
       <c r="I300">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>433</v>
@@ -14399,7 +14399,7 @@
         <v>731</v>
       </c>
       <c r="I301">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
         <v>433</v>
@@ -14425,7 +14425,7 @@
         <v>732</v>
       </c>
       <c r="I302">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
         <v>433</v>
@@ -14451,7 +14451,7 @@
         <v>733</v>
       </c>
       <c r="I303">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
         <v>433</v>
@@ -14477,7 +14477,7 @@
         <v>734</v>
       </c>
       <c r="I304">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>433</v>
@@ -14503,7 +14503,7 @@
         <v>735</v>
       </c>
       <c r="I305">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>433</v>
@@ -14529,7 +14529,7 @@
         <v>736</v>
       </c>
       <c r="I306">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>433</v>
@@ -14555,7 +14555,7 @@
         <v>737</v>
       </c>
       <c r="I307">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>433</v>
@@ -14581,7 +14581,7 @@
         <v>738</v>
       </c>
       <c r="I308">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>433</v>
@@ -14607,7 +14607,7 @@
         <v>739</v>
       </c>
       <c r="I309">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
         <v>433</v>
@@ -14633,7 +14633,7 @@
         <v>740</v>
       </c>
       <c r="I310">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
         <v>433</v>
@@ -14659,7 +14659,7 @@
         <v>741</v>
       </c>
       <c r="I311">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>433</v>
@@ -14685,7 +14685,7 @@
         <v>742</v>
       </c>
       <c r="I312">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
         <v>433</v>
@@ -14711,7 +14711,7 @@
         <v>743</v>
       </c>
       <c r="I313">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>433</v>
@@ -14737,7 +14737,7 @@
         <v>744</v>
       </c>
       <c r="I314">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J314" t="s">
         <v>433</v>
@@ -14763,7 +14763,7 @@
         <v>745</v>
       </c>
       <c r="I315">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J315" t="s">
         <v>433</v>
@@ -14789,7 +14789,7 @@
         <v>746</v>
       </c>
       <c r="I316">
-        <v>1.4999999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="J316" t="s">
         <v>433</v>
@@ -14815,7 +14815,7 @@
         <v>747</v>
       </c>
       <c r="I317">
-        <v>3.3500000000000001E-4</v>
+        <v>2.2290000000000001E-3</v>
       </c>
       <c r="J317" t="s">
         <v>433</v>
@@ -14841,7 +14841,7 @@
         <v>748</v>
       </c>
       <c r="I318">
-        <v>2.0699999999999999E-4</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="J318" t="s">
         <v>433</v>
@@ -14867,7 +14867,7 @@
         <v>749</v>
       </c>
       <c r="I319">
-        <v>1.4999999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="J319" t="s">
         <v>433</v>
@@ -14893,7 +14893,7 @@
         <v>750</v>
       </c>
       <c r="I320">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J320" t="s">
         <v>433</v>
@@ -14919,7 +14919,7 @@
         <v>751</v>
       </c>
       <c r="I321">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J321" t="s">
         <v>433</v>
@@ -14945,7 +14945,7 @@
         <v>752</v>
       </c>
       <c r="I322">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
         <v>433</v>
@@ -14971,7 +14971,7 @@
         <v>753</v>
       </c>
       <c r="I323">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>433</v>
@@ -14997,7 +14997,7 @@
         <v>754</v>
       </c>
       <c r="I324">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>433</v>
@@ -15023,7 +15023,7 @@
         <v>755</v>
       </c>
       <c r="I325">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
         <v>433</v>
@@ -15049,7 +15049,7 @@
         <v>756</v>
       </c>
       <c r="I326">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>433</v>
@@ -15075,7 +15075,7 @@
         <v>757</v>
       </c>
       <c r="I327">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>433</v>
@@ -15101,7 +15101,7 @@
         <v>758</v>
       </c>
       <c r="I328">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>433</v>
@@ -15127,7 +15127,7 @@
         <v>759</v>
       </c>
       <c r="I329">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>433</v>
@@ -15153,7 +15153,7 @@
         <v>760</v>
       </c>
       <c r="I330">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>433</v>
@@ -15179,7 +15179,7 @@
         <v>761</v>
       </c>
       <c r="I331">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>433</v>
@@ -15205,7 +15205,7 @@
         <v>762</v>
       </c>
       <c r="I332">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>433</v>
@@ -15231,7 +15231,7 @@
         <v>763</v>
       </c>
       <c r="I333">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
         <v>433</v>
@@ -15257,7 +15257,7 @@
         <v>764</v>
       </c>
       <c r="I334">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
         <v>433</v>
@@ -15283,7 +15283,7 @@
         <v>765</v>
       </c>
       <c r="I335">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>433</v>
@@ -15309,7 +15309,7 @@
         <v>766</v>
       </c>
       <c r="I336">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
         <v>433</v>
@@ -15335,7 +15335,7 @@
         <v>767</v>
       </c>
       <c r="I337">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>433</v>
@@ -15361,7 +15361,7 @@
         <v>768</v>
       </c>
       <c r="I338">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
         <v>433</v>
@@ -15387,7 +15387,7 @@
         <v>769</v>
       </c>
       <c r="I339">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
         <v>433</v>
@@ -15413,7 +15413,7 @@
         <v>770</v>
       </c>
       <c r="I340">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>433</v>
@@ -15439,7 +15439,7 @@
         <v>771</v>
       </c>
       <c r="I341">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
         <v>433</v>
@@ -15465,7 +15465,7 @@
         <v>772</v>
       </c>
       <c r="I342">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>433</v>
@@ -15491,7 +15491,7 @@
         <v>773</v>
       </c>
       <c r="I343">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J343" t="s">
         <v>433</v>
@@ -15517,7 +15517,7 @@
         <v>774</v>
       </c>
       <c r="I344">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
         <v>433</v>
@@ -15543,7 +15543,7 @@
         <v>775</v>
       </c>
       <c r="I345">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
         <v>433</v>
@@ -15569,7 +15569,7 @@
         <v>776</v>
       </c>
       <c r="I346">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
         <v>433</v>
@@ -15595,7 +15595,7 @@
         <v>777</v>
       </c>
       <c r="I347">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>433</v>
@@ -15621,7 +15621,7 @@
         <v>778</v>
       </c>
       <c r="I348">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>433</v>
@@ -15647,7 +15647,7 @@
         <v>779</v>
       </c>
       <c r="I349">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>433</v>
@@ -15673,7 +15673,7 @@
         <v>780</v>
       </c>
       <c r="I350">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
         <v>433</v>
@@ -15699,7 +15699,7 @@
         <v>781</v>
       </c>
       <c r="I351">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
         <v>433</v>
@@ -15725,7 +15725,7 @@
         <v>782</v>
       </c>
       <c r="I352">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>433</v>
@@ -15751,7 +15751,7 @@
         <v>783</v>
       </c>
       <c r="I353">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
         <v>433</v>
@@ -15777,7 +15777,7 @@
         <v>784</v>
       </c>
       <c r="I354">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>433</v>
@@ -15803,7 +15803,7 @@
         <v>785</v>
       </c>
       <c r="I355">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
         <v>433</v>
@@ -15829,7 +15829,7 @@
         <v>786</v>
       </c>
       <c r="I356">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
         <v>433</v>
@@ -15855,7 +15855,7 @@
         <v>787</v>
       </c>
       <c r="I357">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
         <v>433</v>
@@ -15881,7 +15881,7 @@
         <v>788</v>
       </c>
       <c r="I358">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J358" t="s">
         <v>433</v>
@@ -15907,7 +15907,7 @@
         <v>789</v>
       </c>
       <c r="I359">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J359" t="s">
         <v>433</v>
@@ -15933,7 +15933,7 @@
         <v>790</v>
       </c>
       <c r="I360">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J360" t="s">
         <v>433</v>
@@ -15959,7 +15959,7 @@
         <v>791</v>
       </c>
       <c r="I361">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
         <v>433</v>
@@ -15985,7 +15985,7 @@
         <v>792</v>
       </c>
       <c r="I362">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J362" t="s">
         <v>433</v>
@@ -16011,7 +16011,7 @@
         <v>793</v>
       </c>
       <c r="I363">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J363" t="s">
         <v>433</v>
@@ -16037,7 +16037,7 @@
         <v>794</v>
       </c>
       <c r="I364">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J364" t="s">
         <v>433</v>
@@ -16063,7 +16063,7 @@
         <v>795</v>
       </c>
       <c r="I365">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>433</v>
@@ -16089,7 +16089,7 @@
         <v>796</v>
       </c>
       <c r="I366">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
         <v>433</v>
@@ -16115,7 +16115,7 @@
         <v>797</v>
       </c>
       <c r="I367">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>433</v>
@@ -16141,7 +16141,7 @@
         <v>798</v>
       </c>
       <c r="I368">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>433</v>
@@ -16167,7 +16167,7 @@
         <v>799</v>
       </c>
       <c r="I369">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J369" t="s">
         <v>433</v>
@@ -16193,7 +16193,7 @@
         <v>800</v>
       </c>
       <c r="I370">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
         <v>433</v>
@@ -16219,7 +16219,7 @@
         <v>801</v>
       </c>
       <c r="I371">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
         <v>433</v>
@@ -16245,7 +16245,7 @@
         <v>802</v>
       </c>
       <c r="I372">
-        <v>2.3289000000000001E-2</v>
+        <v>1.6494000000000002E-2</v>
       </c>
       <c r="J372" t="s">
         <v>433</v>
@@ -16271,7 +16271,7 @@
         <v>803</v>
       </c>
       <c r="I373">
-        <v>3.3300000000000001E-3</v>
+        <v>2.153E-3</v>
       </c>
       <c r="J373" t="s">
         <v>433</v>
@@ -16297,7 +16297,7 @@
         <v>804</v>
       </c>
       <c r="I374">
-        <v>3.2520000000000001E-3</v>
+        <v>1.5739999999999999E-3</v>
       </c>
       <c r="J374" t="s">
         <v>433</v>
@@ -16323,7 +16323,7 @@
         <v>805</v>
       </c>
       <c r="I375">
-        <v>3.5239999999999998E-3</v>
+        <v>3.8019999999999998E-3</v>
       </c>
       <c r="J375" t="s">
         <v>433</v>
@@ -16349,7 +16349,7 @@
         <v>806</v>
       </c>
       <c r="I376">
-        <v>2.8257999999999998E-2</v>
+        <v>0.1447</v>
       </c>
       <c r="J376" t="s">
         <v>433</v>
@@ -16375,7 +16375,7 @@
         <v>807</v>
       </c>
       <c r="I377">
-        <v>5.0020000000000004E-3</v>
+        <v>1.8328999999999998E-2</v>
       </c>
       <c r="J377" t="s">
         <v>433</v>
@@ -16401,7 +16401,7 @@
         <v>808</v>
       </c>
       <c r="I378">
-        <v>4.6099999999999995E-3</v>
+        <v>1.4584E-2</v>
       </c>
       <c r="J378" t="s">
         <v>433</v>
@@ -16427,7 +16427,7 @@
         <v>809</v>
       </c>
       <c r="I379">
-        <v>2.3761999999999998E-2</v>
+        <v>2.0687000000000001E-2</v>
       </c>
       <c r="J379" t="s">
         <v>433</v>
@@ -16453,7 +16453,7 @@
         <v>810</v>
       </c>
       <c r="I380">
-        <v>2.2414E-2</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="J380" t="s">
         <v>433</v>
@@ -16479,7 +16479,7 @@
         <v>811</v>
       </c>
       <c r="I381">
-        <v>3.176E-3</v>
+        <v>1.85E-4</v>
       </c>
       <c r="J381" t="s">
         <v>433</v>
@@ -16505,7 +16505,7 @@
         <v>812</v>
       </c>
       <c r="I382">
-        <v>3.176E-3</v>
+        <v>1.44E-4</v>
       </c>
       <c r="J382" t="s">
         <v>433</v>
@@ -16531,7 +16531,7 @@
         <v>813</v>
       </c>
       <c r="I383">
-        <v>3.1619999999999999E-3</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J383" t="s">
         <v>433</v>
@@ -16557,7 +16557,7 @@
         <v>814</v>
       </c>
       <c r="I384">
-        <v>1.5896E-2</v>
+        <v>7.2900000000000005E-4</v>
       </c>
       <c r="J384" t="s">
         <v>433</v>
@@ -16583,7 +16583,7 @@
         <v>815</v>
       </c>
       <c r="I385">
-        <v>3.3119999999999998E-3</v>
+        <v>1.0860000000000002E-3</v>
       </c>
       <c r="J385" t="s">
         <v>433</v>
@@ -16609,7 +16609,7 @@
         <v>816</v>
       </c>
       <c r="I386">
-        <v>3.2209999999999999E-3</v>
+        <v>4.2699999999999997E-4</v>
       </c>
       <c r="J386" t="s">
         <v>433</v>
@@ -16635,7 +16635,7 @@
         <v>817</v>
       </c>
       <c r="I387">
-        <v>2.2197999999999999E-2</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="J387" t="s">
         <v>433</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A3545-2554-4C2F-8B89-535FE1CAF642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ED879-FA08-448E-9093-34138FC851CC}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
